--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Data4Good\planetary-flag\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38715BB-33FD-4B12-8467-D15D2F526D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4332E29-59B5-46E7-8A69-BEBC25BC6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
     <sheet name="references" sheetId="10" r:id="rId2"/>
-    <sheet name="1_rechauffement" sheetId="2" r:id="rId3"/>
-    <sheet name="2_acidification" sheetId="3" r:id="rId4"/>
-    <sheet name="3_ozone" sheetId="4" r:id="rId5"/>
-    <sheet name="4_aerosol" sheetId="5" r:id="rId6"/>
+    <sheet name="1.0_climate_change" sheetId="2" r:id="rId3"/>
+    <sheet name="2.0_acidification" sheetId="3" r:id="rId4"/>
+    <sheet name="3.0_ozone" sheetId="4" r:id="rId5"/>
+    <sheet name="4.0_aerosol" sheetId="5" r:id="rId6"/>
     <sheet name="5.1_P_cycle" sheetId="6" r:id="rId7"/>
     <sheet name="5.2_N_cycle" sheetId="7" r:id="rId8"/>
     <sheet name="6.1_blue_water" sheetId="8" r:id="rId9"/>
     <sheet name="6.2_green_water" sheetId="9" r:id="rId10"/>
-    <sheet name="7_land_use" sheetId="11" r:id="rId11"/>
+    <sheet name="7.0_land_use" sheetId="11" r:id="rId11"/>
     <sheet name="8.1_genetic_diversity" sheetId="12" r:id="rId12"/>
     <sheet name="8.2_functional_diversity" sheetId="13" r:id="rId13"/>
-    <sheet name="9_novel_entities" sheetId="14" r:id="rId14"/>
+    <sheet name="9.0_novel_entities" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="107">
   <si>
     <t>Concentration de CO2 dans l'atmosphère
 PPM</t>
@@ -312,6 +312,63 @@
   </si>
   <si>
     <t>color_limit_max</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>sheetname</t>
+  </si>
+  <si>
+    <t>1.0_climate_change</t>
+  </si>
+  <si>
+    <t>2.0_acidification</t>
+  </si>
+  <si>
+    <t>3.0_ozone</t>
+  </si>
+  <si>
+    <t>4.0_aerosol</t>
+  </si>
+  <si>
+    <t>5.1_P_cycle</t>
+  </si>
+  <si>
+    <t>5.2_N_cycle</t>
+  </si>
+  <si>
+    <t>6.1_blue_water</t>
+  </si>
+  <si>
+    <t>6.2_green_water</t>
+  </si>
+  <si>
+    <t>7.0_land_use</t>
+  </si>
+  <si>
+    <t>8.1_genetic_diversity</t>
+  </si>
+  <si>
+    <t>8.2_functional_diversity</t>
+  </si>
+  <si>
+    <t>9.0_novel_entities</t>
   </si>
 </sst>
 </file>
@@ -723,19 +780,20 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -746,42 +804,45 @@
         <v>37</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -790,33 +851,36 @@
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>350</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>300</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>400</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>69</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
+    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -825,33 +889,36 @@
         <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.75</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -860,33 +927,36 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>276</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>250</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>300</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -895,31 +965,34 @@
         <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -930,34 +1003,37 @@
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -968,34 +1044,37 @@
         <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>62</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I7">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>27</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1006,40 +1085,43 @@
         <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10.199999999999999</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4000</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>57</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>27</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1050,33 +1132,36 @@
         <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11.1</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14.2</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>27</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>7</v>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -1085,31 +1170,34 @@
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>75</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>27</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1120,31 +1208,34 @@
         <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>35</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>27</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -1155,33 +1246,36 @@
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>59</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>9</v>
+    <row r="13" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -1190,27 +1284,30 @@
         <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>-10</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>59</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>27</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1461,7 +1558,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24513,7 +24610,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="A19:F25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Data4Good\planetary-flag\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yeleconsultingsas-my.sharepoint.com/personal/bastien_gauthier_yele_fr/Documents/Documents/21_Chantiers_internes/Clones_git/planetary-flag/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4332E29-59B5-46E7-8A69-BEBC25BC6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D4332E29-59B5-46E7-8A69-BEBC25BC6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F26942-4BED-4F55-B874-855F97D34397}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" firstSheet="6" activeTab="13" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="110">
   <si>
     <t>Concentration de CO2 dans l'atmosphère
 PPM</t>
@@ -370,12 +370,32 @@
   <si>
     <t>9.0_novel_entities</t>
   </si>
+  <si>
+    <t>Outside the Safe Operating Space of the Planetary Boundary for Novel Entities | Environmental Science &amp; Technology (acs.org)</t>
+  </si>
+  <si>
+    <r>
+      <t>Environ. Sci. Technol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2022, 56, 3, 1510–1521</t>
+    </r>
+  </si>
+  <si>
+    <t>Environ. Sci. Technol. 2022, 56, 3, 1510–1521</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +426,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -782,18 +808,18 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -840,7 +866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
@@ -878,7 +904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
@@ -916,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -954,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -992,7 +1018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1033,7 +1059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1074,7 +1100,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1121,7 +1147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1159,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -1197,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1235,7 +1261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -1273,7 +1299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1325,9 +1351,9 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1338,7 +1364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1349,7 +1375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1373,9 +1399,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1386,7 +1412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1397,7 +1423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -1408,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -1419,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -1430,7 +1456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -1441,7 +1467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -1465,9 +1491,9 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1489,7 +1515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1510,12 +1536,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1537,7 +1563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1555,15 +1581,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6245D378-47A6-4623-B529-2C172ECF6064}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +1600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1585,14 +1611,38 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>1950</v>
+      </c>
+      <c r="B3">
+        <f>B5/50</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <f>B5/2</f>
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1606,15 +1656,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1628,7 +1678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1656,7 +1706,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1670,7 +1720,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1682,6 +1732,20 @@
       </c>
       <c r="D5" s="3">
         <v>45243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44579</v>
       </c>
     </row>
   </sheetData>
@@ -1690,6 +1754,7 @@
     <hyperlink ref="C3" r:id="rId2" display="https://en.wikipedia.org/wiki/Planetary_boundaries" xr:uid="{FBF3F7FA-8AD9-4980-8357-955320E96A7F}"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.ecologyandsociety.org/vol14/iss2/art32/" xr:uid="{D58F42DB-72B7-4315-9508-511910E5229C}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://gml.noaa.gov/webdata/ccgg/trends/co2/co2_mm_mlo.txt" xr:uid="{086B5ADE-DFAF-4609-B81B-C55EAF31EDA7}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://pubs.acs.org/doi/10.1021/acs.est.1c04158" xr:uid="{A26E87A5-19E1-4373-B44D-571DA4702664}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1703,9 +1768,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1748,7 +1813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1958</v>
       </c>
@@ -1777,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1958</v>
       </c>
@@ -1806,7 +1871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1958</v>
       </c>
@@ -1835,7 +1900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1958</v>
       </c>
@@ -1864,7 +1929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1958</v>
       </c>
@@ -1893,7 +1958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -1922,7 +1987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1958</v>
       </c>
@@ -1951,7 +2016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -1980,7 +2045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -2009,7 +2074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -2038,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -2067,7 +2132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1959</v>
       </c>
@@ -2096,7 +2161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -2125,7 +2190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1959</v>
       </c>
@@ -2154,7 +2219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1959</v>
       </c>
@@ -2183,7 +2248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1959</v>
       </c>
@@ -2212,7 +2277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1959</v>
       </c>
@@ -2241,7 +2306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1959</v>
       </c>
@@ -2270,7 +2335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1959</v>
       </c>
@@ -2299,7 +2364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1959</v>
       </c>
@@ -2328,7 +2393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1959</v>
       </c>
@@ -2357,7 +2422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1959</v>
       </c>
@@ -2386,7 +2451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1960</v>
       </c>
@@ -2415,7 +2480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1960</v>
       </c>
@@ -2444,7 +2509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1960</v>
       </c>
@@ -2473,7 +2538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1960</v>
       </c>
@@ -2502,7 +2567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1960</v>
       </c>
@@ -2531,7 +2596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1960</v>
       </c>
@@ -2560,7 +2625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1960</v>
       </c>
@@ -2589,7 +2654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1960</v>
       </c>
@@ -2618,7 +2683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1960</v>
       </c>
@@ -2647,7 +2712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1960</v>
       </c>
@@ -2676,7 +2741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1960</v>
       </c>
@@ -2705,7 +2770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1960</v>
       </c>
@@ -2734,7 +2799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1961</v>
       </c>
@@ -2763,7 +2828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1961</v>
       </c>
@@ -2792,7 +2857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1961</v>
       </c>
@@ -2821,7 +2886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1961</v>
       </c>
@@ -2850,7 +2915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1961</v>
       </c>
@@ -2879,7 +2944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1961</v>
       </c>
@@ -2908,7 +2973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1961</v>
       </c>
@@ -2937,7 +3002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1961</v>
       </c>
@@ -2966,7 +3031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1961</v>
       </c>
@@ -2995,7 +3060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -3024,7 +3089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -3053,7 +3118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -3082,7 +3147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1962</v>
       </c>
@@ -3111,7 +3176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3140,7 +3205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3169,7 +3234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3198,7 +3263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3227,7 +3292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1962</v>
       </c>
@@ -3256,7 +3321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1962</v>
       </c>
@@ -3285,7 +3350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1962</v>
       </c>
@@ -3314,7 +3379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1962</v>
       </c>
@@ -3343,7 +3408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1962</v>
       </c>
@@ -3372,7 +3437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1962</v>
       </c>
@@ -3401,7 +3466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1962</v>
       </c>
@@ -3430,7 +3495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1963</v>
       </c>
@@ -3459,7 +3524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1963</v>
       </c>
@@ -3488,7 +3553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1963</v>
       </c>
@@ -3517,7 +3582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1963</v>
       </c>
@@ -3546,7 +3611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1963</v>
       </c>
@@ -3575,7 +3640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1963</v>
       </c>
@@ -3604,7 +3669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1963</v>
       </c>
@@ -3633,7 +3698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1963</v>
       </c>
@@ -3662,7 +3727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1963</v>
       </c>
@@ -3691,7 +3756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1963</v>
       </c>
@@ -3720,7 +3785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1963</v>
       </c>
@@ -3749,7 +3814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1963</v>
       </c>
@@ -3778,7 +3843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1964</v>
       </c>
@@ -3807,7 +3872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1964</v>
       </c>
@@ -3836,7 +3901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1964</v>
       </c>
@@ -3865,7 +3930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1964</v>
       </c>
@@ -3894,7 +3959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1964</v>
       </c>
@@ -3923,7 +3988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1964</v>
       </c>
@@ -3952,7 +4017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1964</v>
       </c>
@@ -3981,7 +4046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1964</v>
       </c>
@@ -4010,7 +4075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1964</v>
       </c>
@@ -4039,7 +4104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1964</v>
       </c>
@@ -4068,7 +4133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1964</v>
       </c>
@@ -4097,7 +4162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1964</v>
       </c>
@@ -4126,7 +4191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1965</v>
       </c>
@@ -4155,7 +4220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1965</v>
       </c>
@@ -4184,7 +4249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1965</v>
       </c>
@@ -4213,7 +4278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1965</v>
       </c>
@@ -4242,7 +4307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1965</v>
       </c>
@@ -4271,7 +4336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1965</v>
       </c>
@@ -4300,7 +4365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1965</v>
       </c>
@@ -4329,7 +4394,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1965</v>
       </c>
@@ -4358,7 +4423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1965</v>
       </c>
@@ -4387,7 +4452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1965</v>
       </c>
@@ -4416,7 +4481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1965</v>
       </c>
@@ -4445,7 +4510,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1965</v>
       </c>
@@ -4474,7 +4539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1966</v>
       </c>
@@ -4503,7 +4568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1966</v>
       </c>
@@ -4532,7 +4597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1966</v>
       </c>
@@ -4561,7 +4626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1966</v>
       </c>
@@ -4590,7 +4655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1966</v>
       </c>
@@ -4619,7 +4684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1966</v>
       </c>
@@ -4648,7 +4713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1966</v>
       </c>
@@ -4677,7 +4742,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1966</v>
       </c>
@@ -4706,7 +4771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1966</v>
       </c>
@@ -4735,7 +4800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1966</v>
       </c>
@@ -4764,7 +4829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1966</v>
       </c>
@@ -4793,7 +4858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1966</v>
       </c>
@@ -4822,7 +4887,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1967</v>
       </c>
@@ -4851,7 +4916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1967</v>
       </c>
@@ -4880,7 +4945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1967</v>
       </c>
@@ -4909,7 +4974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1967</v>
       </c>
@@ -4938,7 +5003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1967</v>
       </c>
@@ -4967,7 +5032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1967</v>
       </c>
@@ -4996,7 +5061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1967</v>
       </c>
@@ -5025,7 +5090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1967</v>
       </c>
@@ -5054,7 +5119,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1967</v>
       </c>
@@ -5083,7 +5148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1967</v>
       </c>
@@ -5112,7 +5177,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1967</v>
       </c>
@@ -5141,7 +5206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1967</v>
       </c>
@@ -5170,7 +5235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1968</v>
       </c>
@@ -5199,7 +5264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1968</v>
       </c>
@@ -5228,7 +5293,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1968</v>
       </c>
@@ -5257,7 +5322,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1968</v>
       </c>
@@ -5286,7 +5351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1968</v>
       </c>
@@ -5315,7 +5380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1968</v>
       </c>
@@ -5344,7 +5409,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1968</v>
       </c>
@@ -5373,7 +5438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1968</v>
       </c>
@@ -5402,7 +5467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1968</v>
       </c>
@@ -5431,7 +5496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1968</v>
       </c>
@@ -5460,7 +5525,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1968</v>
       </c>
@@ -5489,7 +5554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1968</v>
       </c>
@@ -5518,7 +5583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1969</v>
       </c>
@@ -5547,7 +5612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1969</v>
       </c>
@@ -5576,7 +5641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1969</v>
       </c>
@@ -5605,7 +5670,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1969</v>
       </c>
@@ -5634,7 +5699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1969</v>
       </c>
@@ -5663,7 +5728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1969</v>
       </c>
@@ -5692,7 +5757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1969</v>
       </c>
@@ -5721,7 +5786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1969</v>
       </c>
@@ -5750,7 +5815,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1969</v>
       </c>
@@ -5779,7 +5844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1969</v>
       </c>
@@ -5808,7 +5873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1969</v>
       </c>
@@ -5837,7 +5902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1969</v>
       </c>
@@ -5866,7 +5931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1970</v>
       </c>
@@ -5895,7 +5960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1970</v>
       </c>
@@ -5924,7 +5989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1970</v>
       </c>
@@ -5953,7 +6018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1970</v>
       </c>
@@ -5982,7 +6047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1970</v>
       </c>
@@ -6011,7 +6076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1970</v>
       </c>
@@ -6040,7 +6105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1970</v>
       </c>
@@ -6069,7 +6134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1970</v>
       </c>
@@ -6098,7 +6163,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1970</v>
       </c>
@@ -6127,7 +6192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1970</v>
       </c>
@@ -6156,7 +6221,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1970</v>
       </c>
@@ -6185,7 +6250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1970</v>
       </c>
@@ -6214,7 +6279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1971</v>
       </c>
@@ -6243,7 +6308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1971</v>
       </c>
@@ -6272,7 +6337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1971</v>
       </c>
@@ -6301,7 +6366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1971</v>
       </c>
@@ -6330,7 +6395,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1971</v>
       </c>
@@ -6359,7 +6424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1971</v>
       </c>
@@ -6388,7 +6453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1971</v>
       </c>
@@ -6417,7 +6482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1971</v>
       </c>
@@ -6446,7 +6511,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1971</v>
       </c>
@@ -6475,7 +6540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1971</v>
       </c>
@@ -6504,7 +6569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1971</v>
       </c>
@@ -6533,7 +6598,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1971</v>
       </c>
@@ -6562,7 +6627,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1972</v>
       </c>
@@ -6591,7 +6656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1972</v>
       </c>
@@ -6620,7 +6685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1972</v>
       </c>
@@ -6649,7 +6714,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1972</v>
       </c>
@@ -6678,7 +6743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1972</v>
       </c>
@@ -6707,7 +6772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1972</v>
       </c>
@@ -6736,7 +6801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1972</v>
       </c>
@@ -6765,7 +6830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1972</v>
       </c>
@@ -6794,7 +6859,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1972</v>
       </c>
@@ -6823,7 +6888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1972</v>
       </c>
@@ -6852,7 +6917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1972</v>
       </c>
@@ -6881,7 +6946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1972</v>
       </c>
@@ -6910,7 +6975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1973</v>
       </c>
@@ -6939,7 +7004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1973</v>
       </c>
@@ -6968,7 +7033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1973</v>
       </c>
@@ -6997,7 +7062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1973</v>
       </c>
@@ -7026,7 +7091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1973</v>
       </c>
@@ -7055,7 +7120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1973</v>
       </c>
@@ -7084,7 +7149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1973</v>
       </c>
@@ -7113,7 +7178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1973</v>
       </c>
@@ -7142,7 +7207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1973</v>
       </c>
@@ -7171,7 +7236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1973</v>
       </c>
@@ -7200,7 +7265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -7229,7 +7294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1973</v>
       </c>
@@ -7258,7 +7323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1974</v>
       </c>
@@ -7287,7 +7352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1974</v>
       </c>
@@ -7316,7 +7381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1974</v>
       </c>
@@ -7345,7 +7410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1974</v>
       </c>
@@ -7374,7 +7439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1974</v>
       </c>
@@ -7403,7 +7468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1974</v>
       </c>
@@ -7432,7 +7497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1974</v>
       </c>
@@ -7461,7 +7526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1974</v>
       </c>
@@ -7490,7 +7555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1974</v>
       </c>
@@ -7519,7 +7584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1974</v>
       </c>
@@ -7548,7 +7613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1974</v>
       </c>
@@ -7577,7 +7642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1974</v>
       </c>
@@ -7606,7 +7671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1975</v>
       </c>
@@ -7635,7 +7700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1975</v>
       </c>
@@ -7664,7 +7729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1975</v>
       </c>
@@ -7693,7 +7758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1975</v>
       </c>
@@ -7722,7 +7787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1975</v>
       </c>
@@ -7751,7 +7816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1975</v>
       </c>
@@ -7780,7 +7845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1975</v>
       </c>
@@ -7809,7 +7874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1975</v>
       </c>
@@ -7838,7 +7903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1975</v>
       </c>
@@ -7867,7 +7932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1975</v>
       </c>
@@ -7896,7 +7961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1975</v>
       </c>
@@ -7925,7 +7990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1975</v>
       </c>
@@ -7954,7 +8019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1976</v>
       </c>
@@ -7983,7 +8048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1976</v>
       </c>
@@ -8012,7 +8077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1976</v>
       </c>
@@ -8041,7 +8106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1976</v>
       </c>
@@ -8070,7 +8135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1976</v>
       </c>
@@ -8099,7 +8164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1976</v>
       </c>
@@ -8128,7 +8193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1976</v>
       </c>
@@ -8157,7 +8222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1976</v>
       </c>
@@ -8186,7 +8251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1976</v>
       </c>
@@ -8215,7 +8280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1976</v>
       </c>
@@ -8244,7 +8309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1976</v>
       </c>
@@ -8273,7 +8338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1976</v>
       </c>
@@ -8302,7 +8367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1977</v>
       </c>
@@ -8331,7 +8396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1977</v>
       </c>
@@ -8360,7 +8425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1977</v>
       </c>
@@ -8389,7 +8454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1977</v>
       </c>
@@ -8418,7 +8483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1977</v>
       </c>
@@ -8447,7 +8512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1977</v>
       </c>
@@ -8476,7 +8541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1977</v>
       </c>
@@ -8505,7 +8570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1977</v>
       </c>
@@ -8534,7 +8599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1977</v>
       </c>
@@ -8563,7 +8628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1977</v>
       </c>
@@ -8592,7 +8657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1977</v>
       </c>
@@ -8621,7 +8686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1977</v>
       </c>
@@ -8650,7 +8715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1978</v>
       </c>
@@ -8679,7 +8744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1978</v>
       </c>
@@ -8708,7 +8773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1978</v>
       </c>
@@ -8737,7 +8802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1978</v>
       </c>
@@ -8766,7 +8831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1978</v>
       </c>
@@ -8795,7 +8860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1978</v>
       </c>
@@ -8824,7 +8889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1978</v>
       </c>
@@ -8853,7 +8918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1978</v>
       </c>
@@ -8882,7 +8947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1978</v>
       </c>
@@ -8911,7 +8976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1978</v>
       </c>
@@ -8940,7 +9005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1978</v>
       </c>
@@ -8969,7 +9034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1978</v>
       </c>
@@ -8998,7 +9063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1979</v>
       </c>
@@ -9027,7 +9092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1979</v>
       </c>
@@ -9056,7 +9121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1979</v>
       </c>
@@ -9085,7 +9150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1979</v>
       </c>
@@ -9114,7 +9179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1979</v>
       </c>
@@ -9143,7 +9208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1979</v>
       </c>
@@ -9172,7 +9237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1979</v>
       </c>
@@ -9201,7 +9266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1979</v>
       </c>
@@ -9230,7 +9295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1979</v>
       </c>
@@ -9259,7 +9324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1979</v>
       </c>
@@ -9288,7 +9353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1979</v>
       </c>
@@ -9317,7 +9382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1979</v>
       </c>
@@ -9346,7 +9411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1980</v>
       </c>
@@ -9375,7 +9440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1980</v>
       </c>
@@ -9404,7 +9469,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1980</v>
       </c>
@@ -9433,7 +9498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1980</v>
       </c>
@@ -9462,7 +9527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1980</v>
       </c>
@@ -9491,7 +9556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1980</v>
       </c>
@@ -9520,7 +9585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1980</v>
       </c>
@@ -9549,7 +9614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1980</v>
       </c>
@@ -9578,7 +9643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1980</v>
       </c>
@@ -9607,7 +9672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1980</v>
       </c>
@@ -9636,7 +9701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1980</v>
       </c>
@@ -9665,7 +9730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1980</v>
       </c>
@@ -9694,7 +9759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1981</v>
       </c>
@@ -9723,7 +9788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1981</v>
       </c>
@@ -9752,7 +9817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1981</v>
       </c>
@@ -9781,7 +9846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1981</v>
       </c>
@@ -9810,7 +9875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1981</v>
       </c>
@@ -9839,7 +9904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1981</v>
       </c>
@@ -9868,7 +9933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1981</v>
       </c>
@@ -9897,7 +9962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1981</v>
       </c>
@@ -9926,7 +9991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1981</v>
       </c>
@@ -9955,7 +10020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1981</v>
       </c>
@@ -9984,7 +10049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1981</v>
       </c>
@@ -10013,7 +10078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1981</v>
       </c>
@@ -10042,7 +10107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1982</v>
       </c>
@@ -10071,7 +10136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1982</v>
       </c>
@@ -10100,7 +10165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1982</v>
       </c>
@@ -10129,7 +10194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1982</v>
       </c>
@@ -10158,7 +10223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1982</v>
       </c>
@@ -10187,7 +10252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1982</v>
       </c>
@@ -10216,7 +10281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1982</v>
       </c>
@@ -10245,7 +10310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1982</v>
       </c>
@@ -10274,7 +10339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1982</v>
       </c>
@@ -10303,7 +10368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1982</v>
       </c>
@@ -10332,7 +10397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1982</v>
       </c>
@@ -10361,7 +10426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1982</v>
       </c>
@@ -10390,7 +10455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1983</v>
       </c>
@@ -10419,7 +10484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1983</v>
       </c>
@@ -10448,7 +10513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1983</v>
       </c>
@@ -10477,7 +10542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1983</v>
       </c>
@@ -10506,7 +10571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1983</v>
       </c>
@@ -10535,7 +10600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1983</v>
       </c>
@@ -10564,7 +10629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1983</v>
       </c>
@@ -10593,7 +10658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1983</v>
       </c>
@@ -10622,7 +10687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1983</v>
       </c>
@@ -10651,7 +10716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1983</v>
       </c>
@@ -10680,7 +10745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1983</v>
       </c>
@@ -10709,7 +10774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1983</v>
       </c>
@@ -10738,7 +10803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1984</v>
       </c>
@@ -10767,7 +10832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1984</v>
       </c>
@@ -10796,7 +10861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1984</v>
       </c>
@@ -10825,7 +10890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1984</v>
       </c>
@@ -10854,7 +10919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1984</v>
       </c>
@@ -10883,7 +10948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1984</v>
       </c>
@@ -10912,7 +10977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1984</v>
       </c>
@@ -10941,7 +11006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1984</v>
       </c>
@@ -10970,7 +11035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1984</v>
       </c>
@@ -10999,7 +11064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1984</v>
       </c>
@@ -11028,7 +11093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1984</v>
       </c>
@@ -11057,7 +11122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1984</v>
       </c>
@@ -11086,7 +11151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1985</v>
       </c>
@@ -11115,7 +11180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1985</v>
       </c>
@@ -11144,7 +11209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1985</v>
       </c>
@@ -11173,7 +11238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1985</v>
       </c>
@@ -11202,7 +11267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1985</v>
       </c>
@@ -11231,7 +11296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1985</v>
       </c>
@@ -11260,7 +11325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1985</v>
       </c>
@@ -11289,7 +11354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1985</v>
       </c>
@@ -11318,7 +11383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1985</v>
       </c>
@@ -11347,7 +11412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1985</v>
       </c>
@@ -11376,7 +11441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1985</v>
       </c>
@@ -11405,7 +11470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1985</v>
       </c>
@@ -11434,7 +11499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1986</v>
       </c>
@@ -11463,7 +11528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1986</v>
       </c>
@@ -11492,7 +11557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1986</v>
       </c>
@@ -11521,7 +11586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1986</v>
       </c>
@@ -11550,7 +11615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1986</v>
       </c>
@@ -11579,7 +11644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1986</v>
       </c>
@@ -11608,7 +11673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1986</v>
       </c>
@@ -11637,7 +11702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1986</v>
       </c>
@@ -11666,7 +11731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1986</v>
       </c>
@@ -11695,7 +11760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1986</v>
       </c>
@@ -11724,7 +11789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1986</v>
       </c>
@@ -11753,7 +11818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1986</v>
       </c>
@@ -11782,7 +11847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1987</v>
       </c>
@@ -11811,7 +11876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1987</v>
       </c>
@@ -11840,7 +11905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1987</v>
       </c>
@@ -11869,7 +11934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1987</v>
       </c>
@@ -11898,7 +11963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1987</v>
       </c>
@@ -11927,7 +11992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1987</v>
       </c>
@@ -11956,7 +12021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1987</v>
       </c>
@@ -11985,7 +12050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1987</v>
       </c>
@@ -12014,7 +12079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1987</v>
       </c>
@@ -12043,7 +12108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1987</v>
       </c>
@@ -12072,7 +12137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1987</v>
       </c>
@@ -12101,7 +12166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1987</v>
       </c>
@@ -12130,7 +12195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1988</v>
       </c>
@@ -12159,7 +12224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1988</v>
       </c>
@@ -12188,7 +12253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1988</v>
       </c>
@@ -12217,7 +12282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1988</v>
       </c>
@@ -12246,7 +12311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1988</v>
       </c>
@@ -12275,7 +12340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1988</v>
       </c>
@@ -12304,7 +12369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1988</v>
       </c>
@@ -12333,7 +12398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1988</v>
       </c>
@@ -12362,7 +12427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1988</v>
       </c>
@@ -12391,7 +12456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1988</v>
       </c>
@@ -12420,7 +12485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1988</v>
       </c>
@@ -12449,7 +12514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1988</v>
       </c>
@@ -12478,7 +12543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1989</v>
       </c>
@@ -12507,7 +12572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1989</v>
       </c>
@@ -12536,7 +12601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1989</v>
       </c>
@@ -12565,7 +12630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1989</v>
       </c>
@@ -12594,7 +12659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1989</v>
       </c>
@@ -12623,7 +12688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1989</v>
       </c>
@@ -12652,7 +12717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1989</v>
       </c>
@@ -12681,7 +12746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1989</v>
       </c>
@@ -12710,7 +12775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1989</v>
       </c>
@@ -12739,7 +12804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1989</v>
       </c>
@@ -12768,7 +12833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1989</v>
       </c>
@@ -12797,7 +12862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1989</v>
       </c>
@@ -12826,7 +12891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1990</v>
       </c>
@@ -12855,7 +12920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1990</v>
       </c>
@@ -12884,7 +12949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1990</v>
       </c>
@@ -12913,7 +12978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1990</v>
       </c>
@@ -12942,7 +13007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1990</v>
       </c>
@@ -12971,7 +13036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1990</v>
       </c>
@@ -13000,7 +13065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1990</v>
       </c>
@@ -13029,7 +13094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1990</v>
       </c>
@@ -13058,7 +13123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1990</v>
       </c>
@@ -13087,7 +13152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1990</v>
       </c>
@@ -13116,7 +13181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1990</v>
       </c>
@@ -13145,7 +13210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1990</v>
       </c>
@@ -13174,7 +13239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1991</v>
       </c>
@@ -13203,7 +13268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1991</v>
       </c>
@@ -13232,7 +13297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1991</v>
       </c>
@@ -13261,7 +13326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1991</v>
       </c>
@@ -13290,7 +13355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1991</v>
       </c>
@@ -13319,7 +13384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1991</v>
       </c>
@@ -13348,7 +13413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1991</v>
       </c>
@@ -13377,7 +13442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1991</v>
       </c>
@@ -13406,7 +13471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1991</v>
       </c>
@@ -13435,7 +13500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1991</v>
       </c>
@@ -13464,7 +13529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1991</v>
       </c>
@@ -13493,7 +13558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1991</v>
       </c>
@@ -13522,7 +13587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1992</v>
       </c>
@@ -13551,7 +13616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1992</v>
       </c>
@@ -13580,7 +13645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1992</v>
       </c>
@@ -13609,7 +13674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1992</v>
       </c>
@@ -13638,7 +13703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1992</v>
       </c>
@@ -13667,7 +13732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1992</v>
       </c>
@@ -13696,7 +13761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1992</v>
       </c>
@@ -13725,7 +13790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1992</v>
       </c>
@@ -13754,7 +13819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1992</v>
       </c>
@@ -13783,7 +13848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1992</v>
       </c>
@@ -13812,7 +13877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1992</v>
       </c>
@@ -13841,7 +13906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1992</v>
       </c>
@@ -13870,7 +13935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1993</v>
       </c>
@@ -13899,7 +13964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1993</v>
       </c>
@@ -13928,7 +13993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1993</v>
       </c>
@@ -13957,7 +14022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1993</v>
       </c>
@@ -13986,7 +14051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1993</v>
       </c>
@@ -14015,7 +14080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1993</v>
       </c>
@@ -14044,7 +14109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1993</v>
       </c>
@@ -14073,7 +14138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1993</v>
       </c>
@@ -14102,7 +14167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1993</v>
       </c>
@@ -14131,7 +14196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1993</v>
       </c>
@@ -14160,7 +14225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1993</v>
       </c>
@@ -14189,7 +14254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1993</v>
       </c>
@@ -14218,7 +14283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1994</v>
       </c>
@@ -14247,7 +14312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1994</v>
       </c>
@@ -14276,7 +14341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1994</v>
       </c>
@@ -14305,7 +14370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1994</v>
       </c>
@@ -14334,7 +14399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>1994</v>
       </c>
@@ -14363,7 +14428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1994</v>
       </c>
@@ -14392,7 +14457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1994</v>
       </c>
@@ -14421,7 +14486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1994</v>
       </c>
@@ -14450,7 +14515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1994</v>
       </c>
@@ -14479,7 +14544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1994</v>
       </c>
@@ -14508,7 +14573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1994</v>
       </c>
@@ -14537,7 +14602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1994</v>
       </c>
@@ -14566,7 +14631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>1995</v>
       </c>
@@ -14595,7 +14660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1995</v>
       </c>
@@ -14624,7 +14689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>1995</v>
       </c>
@@ -14653,7 +14718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1995</v>
       </c>
@@ -14682,7 +14747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1995</v>
       </c>
@@ -14711,7 +14776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1995</v>
       </c>
@@ -14740,7 +14805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1995</v>
       </c>
@@ -14769,7 +14834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1995</v>
       </c>
@@ -14798,7 +14863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1995</v>
       </c>
@@ -14827,7 +14892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1995</v>
       </c>
@@ -14856,7 +14921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>1995</v>
       </c>
@@ -14885,7 +14950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>1995</v>
       </c>
@@ -14914,7 +14979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>1996</v>
       </c>
@@ -14943,7 +15008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>1996</v>
       </c>
@@ -14972,7 +15037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>1996</v>
       </c>
@@ -15001,7 +15066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1996</v>
       </c>
@@ -15030,7 +15095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>1996</v>
       </c>
@@ -15059,7 +15124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1996</v>
       </c>
@@ -15088,7 +15153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>1996</v>
       </c>
@@ -15117,7 +15182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>1996</v>
       </c>
@@ -15146,7 +15211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>1996</v>
       </c>
@@ -15175,7 +15240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>1996</v>
       </c>
@@ -15204,7 +15269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>1996</v>
       </c>
@@ -15233,7 +15298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>1996</v>
       </c>
@@ -15262,7 +15327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>1997</v>
       </c>
@@ -15291,7 +15356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>1997</v>
       </c>
@@ -15320,7 +15385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>1997</v>
       </c>
@@ -15349,7 +15414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>1997</v>
       </c>
@@ -15378,7 +15443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>1997</v>
       </c>
@@ -15407,7 +15472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>1997</v>
       </c>
@@ -15436,7 +15501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>1997</v>
       </c>
@@ -15465,7 +15530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>1997</v>
       </c>
@@ -15494,7 +15559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>1997</v>
       </c>
@@ -15523,7 +15588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1997</v>
       </c>
@@ -15552,7 +15617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>1997</v>
       </c>
@@ -15581,7 +15646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>1997</v>
       </c>
@@ -15610,7 +15675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>1998</v>
       </c>
@@ -15639,7 +15704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>1998</v>
       </c>
@@ -15668,7 +15733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>1998</v>
       </c>
@@ -15697,7 +15762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1998</v>
       </c>
@@ -15726,7 +15791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>1998</v>
       </c>
@@ -15755,7 +15820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>1998</v>
       </c>
@@ -15784,7 +15849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>1998</v>
       </c>
@@ -15813,7 +15878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>1998</v>
       </c>
@@ -15842,7 +15907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>1998</v>
       </c>
@@ -15871,7 +15936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>1998</v>
       </c>
@@ -15900,7 +15965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>1998</v>
       </c>
@@ -15929,7 +15994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>1998</v>
       </c>
@@ -15958,7 +16023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>1999</v>
       </c>
@@ -15987,7 +16052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>1999</v>
       </c>
@@ -16016,7 +16081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>1999</v>
       </c>
@@ -16045,7 +16110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1999</v>
       </c>
@@ -16074,7 +16139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>1999</v>
       </c>
@@ -16103,7 +16168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>1999</v>
       </c>
@@ -16132,7 +16197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>1999</v>
       </c>
@@ -16161,7 +16226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>1999</v>
       </c>
@@ -16190,7 +16255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>1999</v>
       </c>
@@ -16219,7 +16284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>1999</v>
       </c>
@@ -16248,7 +16313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>1999</v>
       </c>
@@ -16277,7 +16342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>1999</v>
       </c>
@@ -16306,7 +16371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>2000</v>
       </c>
@@ -16335,7 +16400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>2000</v>
       </c>
@@ -16364,7 +16429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2000</v>
       </c>
@@ -16393,7 +16458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2000</v>
       </c>
@@ -16422,7 +16487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2000</v>
       </c>
@@ -16451,7 +16516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>2000</v>
       </c>
@@ -16480,7 +16545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>2000</v>
       </c>
@@ -16509,7 +16574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>2000</v>
       </c>
@@ -16538,7 +16603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>2000</v>
       </c>
@@ -16567,7 +16632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2000</v>
       </c>
@@ -16596,7 +16661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>2000</v>
       </c>
@@ -16625,7 +16690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>2000</v>
       </c>
@@ -16654,7 +16719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>2001</v>
       </c>
@@ -16683,7 +16748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2001</v>
       </c>
@@ -16712,7 +16777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>2001</v>
       </c>
@@ -16741,7 +16806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2001</v>
       </c>
@@ -16770,7 +16835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>2001</v>
       </c>
@@ -16799,7 +16864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2001</v>
       </c>
@@ -16828,7 +16893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2001</v>
       </c>
@@ -16857,7 +16922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2001</v>
       </c>
@@ -16886,7 +16951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>2001</v>
       </c>
@@ -16915,7 +16980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>2001</v>
       </c>
@@ -16944,7 +17009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>2001</v>
       </c>
@@ -16973,7 +17038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>2001</v>
       </c>
@@ -17002,7 +17067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2002</v>
       </c>
@@ -17031,7 +17096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2002</v>
       </c>
@@ -17060,7 +17125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2002</v>
       </c>
@@ -17089,7 +17154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2002</v>
       </c>
@@ -17118,7 +17183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>2002</v>
       </c>
@@ -17147,7 +17212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>2002</v>
       </c>
@@ -17176,7 +17241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>2002</v>
       </c>
@@ -17205,7 +17270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>2002</v>
       </c>
@@ -17234,7 +17299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>2002</v>
       </c>
@@ -17263,7 +17328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2002</v>
       </c>
@@ -17292,7 +17357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2002</v>
       </c>
@@ -17321,7 +17386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>2002</v>
       </c>
@@ -17350,7 +17415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>2003</v>
       </c>
@@ -17379,7 +17444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>2003</v>
       </c>
@@ -17408,7 +17473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>2003</v>
       </c>
@@ -17437,7 +17502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>2003</v>
       </c>
@@ -17466,7 +17531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>2003</v>
       </c>
@@ -17495,7 +17560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2003</v>
       </c>
@@ -17524,7 +17589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>2003</v>
       </c>
@@ -17553,7 +17618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2003</v>
       </c>
@@ -17582,7 +17647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>2003</v>
       </c>
@@ -17611,7 +17676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2003</v>
       </c>
@@ -17640,7 +17705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2003</v>
       </c>
@@ -17669,7 +17734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2003</v>
       </c>
@@ -17698,7 +17763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2004</v>
       </c>
@@ -17727,7 +17792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2004</v>
       </c>
@@ -17756,7 +17821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2004</v>
       </c>
@@ -17785,7 +17850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>2004</v>
       </c>
@@ -17814,7 +17879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>2004</v>
       </c>
@@ -17843,7 +17908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>2004</v>
       </c>
@@ -17872,7 +17937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>2004</v>
       </c>
@@ -17901,7 +17966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>2004</v>
       </c>
@@ -17930,7 +17995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>2004</v>
       </c>
@@ -17959,7 +18024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>2004</v>
       </c>
@@ -17988,7 +18053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>2004</v>
       </c>
@@ -18017,7 +18082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>2004</v>
       </c>
@@ -18046,7 +18111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>2005</v>
       </c>
@@ -18075,7 +18140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>2005</v>
       </c>
@@ -18104,7 +18169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>2005</v>
       </c>
@@ -18133,7 +18198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>2005</v>
       </c>
@@ -18162,7 +18227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>2005</v>
       </c>
@@ -18191,7 +18256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>2005</v>
       </c>
@@ -18220,7 +18285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>2005</v>
       </c>
@@ -18249,7 +18314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>2005</v>
       </c>
@@ -18278,7 +18343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>2005</v>
       </c>
@@ -18307,7 +18372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>2005</v>
       </c>
@@ -18336,7 +18401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>2005</v>
       </c>
@@ -18365,7 +18430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>2005</v>
       </c>
@@ -18394,7 +18459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>2006</v>
       </c>
@@ -18423,7 +18488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>2006</v>
       </c>
@@ -18452,7 +18517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>2006</v>
       </c>
@@ -18481,7 +18546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>2006</v>
       </c>
@@ -18510,7 +18575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2006</v>
       </c>
@@ -18539,7 +18604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>2006</v>
       </c>
@@ -18568,7 +18633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2006</v>
       </c>
@@ -18597,7 +18662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>2006</v>
       </c>
@@ -18626,7 +18691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>2006</v>
       </c>
@@ -18655,7 +18720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>2006</v>
       </c>
@@ -18684,7 +18749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>2006</v>
       </c>
@@ -18713,7 +18778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>2006</v>
       </c>
@@ -18742,7 +18807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>2007</v>
       </c>
@@ -18771,7 +18836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>2007</v>
       </c>
@@ -18800,7 +18865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>2007</v>
       </c>
@@ -18829,7 +18894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>2007</v>
       </c>
@@ -18858,7 +18923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2007</v>
       </c>
@@ -18887,7 +18952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>2007</v>
       </c>
@@ -18916,7 +18981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>2007</v>
       </c>
@@ -18945,7 +19010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>2007</v>
       </c>
@@ -18974,7 +19039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>2007</v>
       </c>
@@ -19003,7 +19068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>2007</v>
       </c>
@@ -19032,7 +19097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>2007</v>
       </c>
@@ -19061,7 +19126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>2007</v>
       </c>
@@ -19090,7 +19155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>2008</v>
       </c>
@@ -19119,7 +19184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>2008</v>
       </c>
@@ -19148,7 +19213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>2008</v>
       </c>
@@ -19177,7 +19242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>2008</v>
       </c>
@@ -19206,7 +19271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>2008</v>
       </c>
@@ -19235,7 +19300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>2008</v>
       </c>
@@ -19264,7 +19329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>2008</v>
       </c>
@@ -19293,7 +19358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>2008</v>
       </c>
@@ -19322,7 +19387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>2008</v>
       </c>
@@ -19351,7 +19416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>2008</v>
       </c>
@@ -19380,7 +19445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>2008</v>
       </c>
@@ -19409,7 +19474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>2008</v>
       </c>
@@ -19438,7 +19503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>2009</v>
       </c>
@@ -19467,7 +19532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>2009</v>
       </c>
@@ -19496,7 +19561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>2009</v>
       </c>
@@ -19525,7 +19590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>2009</v>
       </c>
@@ -19554,7 +19619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>2009</v>
       </c>
@@ -19583,7 +19648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>2009</v>
       </c>
@@ -19612,7 +19677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>2009</v>
       </c>
@@ -19641,7 +19706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>2009</v>
       </c>
@@ -19670,7 +19735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>2009</v>
       </c>
@@ -19699,7 +19764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>2009</v>
       </c>
@@ -19728,7 +19793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>2009</v>
       </c>
@@ -19757,7 +19822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>2009</v>
       </c>
@@ -19786,7 +19851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2010</v>
       </c>
@@ -19815,7 +19880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2010</v>
       </c>
@@ -19844,7 +19909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2010</v>
       </c>
@@ -19873,7 +19938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>2010</v>
       </c>
@@ -19902,7 +19967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>2010</v>
       </c>
@@ -19931,7 +19996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>2010</v>
       </c>
@@ -19960,7 +20025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>2010</v>
       </c>
@@ -19989,7 +20054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>2010</v>
       </c>
@@ -20018,7 +20083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>2010</v>
       </c>
@@ -20047,7 +20112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2010</v>
       </c>
@@ -20076,7 +20141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>2010</v>
       </c>
@@ -20105,7 +20170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>2010</v>
       </c>
@@ -20134,7 +20199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>2011</v>
       </c>
@@ -20163,7 +20228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>2011</v>
       </c>
@@ -20192,7 +20257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2011</v>
       </c>
@@ -20221,7 +20286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>2011</v>
       </c>
@@ -20250,7 +20315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>2011</v>
       </c>
@@ -20279,7 +20344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>2011</v>
       </c>
@@ -20308,7 +20373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>2011</v>
       </c>
@@ -20337,7 +20402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>2011</v>
       </c>
@@ -20366,7 +20431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>2011</v>
       </c>
@@ -20395,7 +20460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>2011</v>
       </c>
@@ -20424,7 +20489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>2011</v>
       </c>
@@ -20453,7 +20518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>2011</v>
       </c>
@@ -20482,7 +20547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>2012</v>
       </c>
@@ -20511,7 +20576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>2012</v>
       </c>
@@ -20540,7 +20605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>2012</v>
       </c>
@@ -20569,7 +20634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>2012</v>
       </c>
@@ -20598,7 +20663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>2012</v>
       </c>
@@ -20627,7 +20692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>2012</v>
       </c>
@@ -20656,7 +20721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>2012</v>
       </c>
@@ -20685,7 +20750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>2012</v>
       </c>
@@ -20714,7 +20779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>2012</v>
       </c>
@@ -20743,7 +20808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>2012</v>
       </c>
@@ -20772,7 +20837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>2012</v>
       </c>
@@ -20801,7 +20866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>2012</v>
       </c>
@@ -20830,7 +20895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>2013</v>
       </c>
@@ -20859,7 +20924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>2013</v>
       </c>
@@ -20888,7 +20953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>2013</v>
       </c>
@@ -20917,7 +20982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>2013</v>
       </c>
@@ -20946,7 +21011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>2013</v>
       </c>
@@ -20975,7 +21040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>2013</v>
       </c>
@@ -21004,7 +21069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>2013</v>
       </c>
@@ -21033,7 +21098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>2013</v>
       </c>
@@ -21062,7 +21127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>2013</v>
       </c>
@@ -21091,7 +21156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>2013</v>
       </c>
@@ -21120,7 +21185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>2013</v>
       </c>
@@ -21149,7 +21214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>2013</v>
       </c>
@@ -21178,7 +21243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>2014</v>
       </c>
@@ -21207,7 +21272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>2014</v>
       </c>
@@ -21236,7 +21301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>2014</v>
       </c>
@@ -21265,7 +21330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>2014</v>
       </c>
@@ -21294,7 +21359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>2014</v>
       </c>
@@ -21323,7 +21388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>2014</v>
       </c>
@@ -21352,7 +21417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>2014</v>
       </c>
@@ -21381,7 +21446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>2014</v>
       </c>
@@ -21410,7 +21475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>2014</v>
       </c>
@@ -21439,7 +21504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>2014</v>
       </c>
@@ -21468,7 +21533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>2014</v>
       </c>
@@ -21497,7 +21562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>2014</v>
       </c>
@@ -21526,7 +21591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>2015</v>
       </c>
@@ -21555,7 +21620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>2015</v>
       </c>
@@ -21584,7 +21649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>2015</v>
       </c>
@@ -21613,7 +21678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>2015</v>
       </c>
@@ -21642,7 +21707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>2015</v>
       </c>
@@ -21671,7 +21736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>2015</v>
       </c>
@@ -21700,7 +21765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>2015</v>
       </c>
@@ -21729,7 +21794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>2015</v>
       </c>
@@ -21758,7 +21823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>2015</v>
       </c>
@@ -21787,7 +21852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>2015</v>
       </c>
@@ -21816,7 +21881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>2015</v>
       </c>
@@ -21845,7 +21910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>2015</v>
       </c>
@@ -21874,7 +21939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>2016</v>
       </c>
@@ -21903,7 +21968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>2016</v>
       </c>
@@ -21932,7 +21997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>2016</v>
       </c>
@@ -21961,7 +22026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>2016</v>
       </c>
@@ -21990,7 +22055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>2016</v>
       </c>
@@ -22019,7 +22084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>2016</v>
       </c>
@@ -22048,7 +22113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>2016</v>
       </c>
@@ -22077,7 +22142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>2016</v>
       </c>
@@ -22106,7 +22171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>2016</v>
       </c>
@@ -22135,7 +22200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>2016</v>
       </c>
@@ -22164,7 +22229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>2016</v>
       </c>
@@ -22193,7 +22258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>2016</v>
       </c>
@@ -22222,7 +22287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>2017</v>
       </c>
@@ -22251,7 +22316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>2017</v>
       </c>
@@ -22280,7 +22345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>2017</v>
       </c>
@@ -22309,7 +22374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>2017</v>
       </c>
@@ -22338,7 +22403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>2017</v>
       </c>
@@ -22367,7 +22432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>2017</v>
       </c>
@@ -22396,7 +22461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>2017</v>
       </c>
@@ -22425,7 +22490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>2017</v>
       </c>
@@ -22454,7 +22519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>2017</v>
       </c>
@@ -22483,7 +22548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>2017</v>
       </c>
@@ -22512,7 +22577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>2017</v>
       </c>
@@ -22541,7 +22606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>2017</v>
       </c>
@@ -22570,7 +22635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>2018</v>
       </c>
@@ -22599,7 +22664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>2018</v>
       </c>
@@ -22628,7 +22693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>2018</v>
       </c>
@@ -22657,7 +22722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>2018</v>
       </c>
@@ -22686,7 +22751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>2018</v>
       </c>
@@ -22715,7 +22780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>2018</v>
       </c>
@@ -22744,7 +22809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>2018</v>
       </c>
@@ -22773,7 +22838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>2018</v>
       </c>
@@ -22802,7 +22867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>2018</v>
       </c>
@@ -22831,7 +22896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>2018</v>
       </c>
@@ -22860,7 +22925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>2018</v>
       </c>
@@ -22889,7 +22954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>2018</v>
       </c>
@@ -22918,7 +22983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>2019</v>
       </c>
@@ -22947,7 +23012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>2019</v>
       </c>
@@ -22976,7 +23041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>2019</v>
       </c>
@@ -23005,7 +23070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>2019</v>
       </c>
@@ -23034,7 +23099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>2019</v>
       </c>
@@ -23063,7 +23128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>2019</v>
       </c>
@@ -23092,7 +23157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>2019</v>
       </c>
@@ -23121,7 +23186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>2019</v>
       </c>
@@ -23150,7 +23215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>2019</v>
       </c>
@@ -23179,7 +23244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>2019</v>
       </c>
@@ -23208,7 +23273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>2019</v>
       </c>
@@ -23237,7 +23302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>2019</v>
       </c>
@@ -23266,7 +23331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>2020</v>
       </c>
@@ -23295,7 +23360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>2020</v>
       </c>
@@ -23324,7 +23389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>2020</v>
       </c>
@@ -23353,7 +23418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>2020</v>
       </c>
@@ -23382,7 +23447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>2020</v>
       </c>
@@ -23411,7 +23476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>2020</v>
       </c>
@@ -23440,7 +23505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>2020</v>
       </c>
@@ -23469,7 +23534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>2020</v>
       </c>
@@ -23498,7 +23563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>2020</v>
       </c>
@@ -23527,7 +23592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>2020</v>
       </c>
@@ -23556,7 +23621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>2020</v>
       </c>
@@ -23585,7 +23650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>2020</v>
       </c>
@@ -23614,7 +23679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>2021</v>
       </c>
@@ -23643,7 +23708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>2021</v>
       </c>
@@ -23672,7 +23737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>2021</v>
       </c>
@@ -23701,7 +23766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>2021</v>
       </c>
@@ -23730,7 +23795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>2021</v>
       </c>
@@ -23759,7 +23824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>2021</v>
       </c>
@@ -23788,7 +23853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>2021</v>
       </c>
@@ -23817,7 +23882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>2021</v>
       </c>
@@ -23846,7 +23911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>2021</v>
       </c>
@@ -23875,7 +23940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>2021</v>
       </c>
@@ -23904,7 +23969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>2021</v>
       </c>
@@ -23933,7 +23998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>2021</v>
       </c>
@@ -23962,7 +24027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>2022</v>
       </c>
@@ -23991,7 +24056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>2022</v>
       </c>
@@ -24020,7 +24085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>2022</v>
       </c>
@@ -24049,7 +24114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>2022</v>
       </c>
@@ -24078,7 +24143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>2022</v>
       </c>
@@ -24107,7 +24172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>2022</v>
       </c>
@@ -24136,7 +24201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>2022</v>
       </c>
@@ -24165,7 +24230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>2022</v>
       </c>
@@ -24194,7 +24259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>2022</v>
       </c>
@@ -24223,7 +24288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>2022</v>
       </c>
@@ -24252,7 +24317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>2022</v>
       </c>
@@ -24281,7 +24346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>2022</v>
       </c>
@@ -24310,7 +24375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>2023</v>
       </c>
@@ -24339,7 +24404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>2023</v>
       </c>
@@ -24368,7 +24433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>2023</v>
       </c>
@@ -24397,7 +24462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>2023</v>
       </c>
@@ -24426,7 +24491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>2023</v>
       </c>
@@ -24455,7 +24520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>2023</v>
       </c>
@@ -24484,7 +24549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>2023</v>
       </c>
@@ -24513,7 +24578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>2023</v>
       </c>
@@ -24542,7 +24607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>2023</v>
       </c>
@@ -24571,7 +24636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>2023</v>
       </c>
@@ -24613,9 +24678,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24626,7 +24691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24637,7 +24702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24661,9 +24726,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24674,7 +24739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24685,7 +24750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24696,7 +24761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -24707,7 +24772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -24718,7 +24783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -24729,7 +24794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24753,9 +24818,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24766,7 +24831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24777,7 +24842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24801,9 +24866,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24814,7 +24879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24825,7 +24890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24836,7 +24901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -24847,7 +24912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -24858,7 +24923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -24869,7 +24934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -24880,7 +24945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -24904,9 +24969,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24917,7 +24982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24928,7 +24993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24939,7 +25004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -24950,7 +25015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -24961,7 +25026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -24972,7 +25037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -24983,7 +25048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -24994,7 +25059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -25018,9 +25083,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -25031,7 +25096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -25042,7 +25107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>

--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yeleconsultingsas-my.sharepoint.com/personal/bastien_gauthier_yele_fr/Documents/Documents/21_Chantiers_internes/Clones_git/planetary-flag/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Data4Good\planetary-flag\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D4332E29-59B5-46E7-8A69-BEBC25BC6CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00F26942-4BED-4F55-B874-855F97D34397}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" firstSheet="6" activeTab="13" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="885" firstSheet="6" activeTab="9" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="114">
   <si>
     <t>Concentration de CO2 dans l'atmosphère
 PPM</t>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>Environ. Sci. Technol. 2022, 56, 3, 1510–1521</t>
+  </si>
+  <si>
+    <t>Global water cycle shifts far beyond pre-industrial conditions – planetary boundary for freshwater change transgressed (eartharxiv.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global water cycle </t>
+  </si>
+  <si>
+    <t>Global water cycle</t>
+  </si>
+  <si>
+    <t>Extrapolation</t>
   </si>
 </sst>
 </file>
@@ -812,14 +824,14 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="2" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -866,7 +878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
@@ -904,7 +916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
@@ -942,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -980,7 +992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1147,7 +1159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1261,7 +1273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -1299,7 +1311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1345,15 +1357,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4E9548-592A-4735-BB68-D64A6EDDC2A7}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1372,18 +1384,95 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1900</v>
+      </c>
+      <c r="B3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1929</v>
+      </c>
+      <c r="B4">
+        <v>11.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1939</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1950</v>
+      </c>
+      <c r="B6">
+        <v>11.7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1970</v>
+      </c>
+      <c r="B7">
+        <v>12.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1975</v>
+      </c>
+      <c r="B8">
+        <v>11.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>15.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2023</v>
       </c>
-      <c r="B3">
+      <c r="B10">
         <v>15.8</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="C10" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1399,9 +1488,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1423,7 +1512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -1434,7 +1523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -1445,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -1456,7 +1545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -1467,7 +1556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -1491,9 +1580,9 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1515,7 +1604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1539,9 +1628,9 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1552,7 +1641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1563,7 +1652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1583,13 +1672,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6245D378-47A6-4623-B529-2C172ECF6064}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1611,7 +1700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -1623,7 +1712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1635,7 +1724,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -1656,15 +1745,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1678,7 +1767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1692,7 +1781,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1706,7 +1795,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1720,7 +1809,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1734,7 +1823,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1746,6 +1835,20 @@
       </c>
       <c r="D6" s="3">
         <v>44579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45070</v>
       </c>
     </row>
   </sheetData>
@@ -1755,6 +1858,7 @@
     <hyperlink ref="C4" r:id="rId3" display="https://www.ecologyandsociety.org/vol14/iss2/art32/" xr:uid="{D58F42DB-72B7-4315-9508-511910E5229C}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://gml.noaa.gov/webdata/ccgg/trends/co2/co2_mm_mlo.txt" xr:uid="{086B5ADE-DFAF-4609-B81B-C55EAF31EDA7}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://pubs.acs.org/doi/10.1021/acs.est.1c04158" xr:uid="{A26E87A5-19E1-4373-B44D-571DA4702664}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://eartharxiv.org/repository/view/3438/" xr:uid="{4531B76C-59AB-469E-884C-B842EBEDF156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1768,9 +1872,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1799,7 +1903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1813,7 +1917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1958</v>
       </c>
@@ -1842,7 +1946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1958</v>
       </c>
@@ -1871,7 +1975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1958</v>
       </c>
@@ -1900,7 +2004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1958</v>
       </c>
@@ -1929,7 +2033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1958</v>
       </c>
@@ -1958,7 +2062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -1987,7 +2091,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1958</v>
       </c>
@@ -2016,7 +2120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -2045,7 +2149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -2074,7 +2178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -2103,7 +2207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -2132,7 +2236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1959</v>
       </c>
@@ -2161,7 +2265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -2190,7 +2294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1959</v>
       </c>
@@ -2219,7 +2323,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1959</v>
       </c>
@@ -2248,7 +2352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1959</v>
       </c>
@@ -2277,7 +2381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1959</v>
       </c>
@@ -2306,7 +2410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1959</v>
       </c>
@@ -2335,7 +2439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1959</v>
       </c>
@@ -2364,7 +2468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1959</v>
       </c>
@@ -2393,7 +2497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1959</v>
       </c>
@@ -2422,7 +2526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1959</v>
       </c>
@@ -2451,7 +2555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1960</v>
       </c>
@@ -2480,7 +2584,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1960</v>
       </c>
@@ -2509,7 +2613,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1960</v>
       </c>
@@ -2538,7 +2642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1960</v>
       </c>
@@ -2567,7 +2671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1960</v>
       </c>
@@ -2596,7 +2700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1960</v>
       </c>
@@ -2625,7 +2729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1960</v>
       </c>
@@ -2654,7 +2758,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1960</v>
       </c>
@@ -2683,7 +2787,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1960</v>
       </c>
@@ -2712,7 +2816,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1960</v>
       </c>
@@ -2741,7 +2845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1960</v>
       </c>
@@ -2770,7 +2874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1960</v>
       </c>
@@ -2799,7 +2903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1961</v>
       </c>
@@ -2828,7 +2932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1961</v>
       </c>
@@ -2857,7 +2961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1961</v>
       </c>
@@ -2886,7 +2990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1961</v>
       </c>
@@ -2915,7 +3019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1961</v>
       </c>
@@ -2944,7 +3048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1961</v>
       </c>
@@ -2973,7 +3077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1961</v>
       </c>
@@ -3002,7 +3106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1961</v>
       </c>
@@ -3031,7 +3135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1961</v>
       </c>
@@ -3060,7 +3164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -3089,7 +3193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -3118,7 +3222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -3147,7 +3251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1962</v>
       </c>
@@ -3176,7 +3280,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3205,7 +3309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3234,7 +3338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3263,7 +3367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3292,7 +3396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1962</v>
       </c>
@@ -3321,7 +3425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1962</v>
       </c>
@@ -3350,7 +3454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1962</v>
       </c>
@@ -3379,7 +3483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1962</v>
       </c>
@@ -3408,7 +3512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1962</v>
       </c>
@@ -3437,7 +3541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1962</v>
       </c>
@@ -3466,7 +3570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1962</v>
       </c>
@@ -3495,7 +3599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1963</v>
       </c>
@@ -3524,7 +3628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1963</v>
       </c>
@@ -3553,7 +3657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1963</v>
       </c>
@@ -3582,7 +3686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1963</v>
       </c>
@@ -3611,7 +3715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1963</v>
       </c>
@@ -3640,7 +3744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1963</v>
       </c>
@@ -3669,7 +3773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1963</v>
       </c>
@@ -3698,7 +3802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1963</v>
       </c>
@@ -3727,7 +3831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1963</v>
       </c>
@@ -3756,7 +3860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1963</v>
       </c>
@@ -3785,7 +3889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1963</v>
       </c>
@@ -3814,7 +3918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1963</v>
       </c>
@@ -3843,7 +3947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1964</v>
       </c>
@@ -3872,7 +3976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1964</v>
       </c>
@@ -3901,7 +4005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1964</v>
       </c>
@@ -3930,7 +4034,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1964</v>
       </c>
@@ -3959,7 +4063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1964</v>
       </c>
@@ -3988,7 +4092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1964</v>
       </c>
@@ -4017,7 +4121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1964</v>
       </c>
@@ -4046,7 +4150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1964</v>
       </c>
@@ -4075,7 +4179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1964</v>
       </c>
@@ -4104,7 +4208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1964</v>
       </c>
@@ -4133,7 +4237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1964</v>
       </c>
@@ -4162,7 +4266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1964</v>
       </c>
@@ -4191,7 +4295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1965</v>
       </c>
@@ -4220,7 +4324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1965</v>
       </c>
@@ -4249,7 +4353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1965</v>
       </c>
@@ -4278,7 +4382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1965</v>
       </c>
@@ -4307,7 +4411,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1965</v>
       </c>
@@ -4336,7 +4440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1965</v>
       </c>
@@ -4365,7 +4469,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1965</v>
       </c>
@@ -4394,7 +4498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1965</v>
       </c>
@@ -4423,7 +4527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1965</v>
       </c>
@@ -4452,7 +4556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1965</v>
       </c>
@@ -4481,7 +4585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1965</v>
       </c>
@@ -4510,7 +4614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1965</v>
       </c>
@@ -4539,7 +4643,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1966</v>
       </c>
@@ -4568,7 +4672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1966</v>
       </c>
@@ -4597,7 +4701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1966</v>
       </c>
@@ -4626,7 +4730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1966</v>
       </c>
@@ -4655,7 +4759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1966</v>
       </c>
@@ -4684,7 +4788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1966</v>
       </c>
@@ -4713,7 +4817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1966</v>
       </c>
@@ -4742,7 +4846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1966</v>
       </c>
@@ -4771,7 +4875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1966</v>
       </c>
@@ -4800,7 +4904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1966</v>
       </c>
@@ -4829,7 +4933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1966</v>
       </c>
@@ -4858,7 +4962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1966</v>
       </c>
@@ -4887,7 +4991,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1967</v>
       </c>
@@ -4916,7 +5020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1967</v>
       </c>
@@ -4945,7 +5049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1967</v>
       </c>
@@ -4974,7 +5078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1967</v>
       </c>
@@ -5003,7 +5107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1967</v>
       </c>
@@ -5032,7 +5136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1967</v>
       </c>
@@ -5061,7 +5165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1967</v>
       </c>
@@ -5090,7 +5194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1967</v>
       </c>
@@ -5119,7 +5223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1967</v>
       </c>
@@ -5148,7 +5252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1967</v>
       </c>
@@ -5177,7 +5281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1967</v>
       </c>
@@ -5206,7 +5310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1967</v>
       </c>
@@ -5235,7 +5339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1968</v>
       </c>
@@ -5264,7 +5368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1968</v>
       </c>
@@ -5293,7 +5397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1968</v>
       </c>
@@ -5322,7 +5426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1968</v>
       </c>
@@ -5351,7 +5455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1968</v>
       </c>
@@ -5380,7 +5484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1968</v>
       </c>
@@ -5409,7 +5513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1968</v>
       </c>
@@ -5438,7 +5542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1968</v>
       </c>
@@ -5467,7 +5571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1968</v>
       </c>
@@ -5496,7 +5600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1968</v>
       </c>
@@ -5525,7 +5629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1968</v>
       </c>
@@ -5554,7 +5658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1968</v>
       </c>
@@ -5583,7 +5687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1969</v>
       </c>
@@ -5612,7 +5716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1969</v>
       </c>
@@ -5641,7 +5745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1969</v>
       </c>
@@ -5670,7 +5774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1969</v>
       </c>
@@ -5699,7 +5803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1969</v>
       </c>
@@ -5728,7 +5832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1969</v>
       </c>
@@ -5757,7 +5861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1969</v>
       </c>
@@ -5786,7 +5890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1969</v>
       </c>
@@ -5815,7 +5919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1969</v>
       </c>
@@ -5844,7 +5948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1969</v>
       </c>
@@ -5873,7 +5977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1969</v>
       </c>
@@ -5902,7 +6006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1969</v>
       </c>
@@ -5931,7 +6035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1970</v>
       </c>
@@ -5960,7 +6064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1970</v>
       </c>
@@ -5989,7 +6093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1970</v>
       </c>
@@ -6018,7 +6122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1970</v>
       </c>
@@ -6047,7 +6151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1970</v>
       </c>
@@ -6076,7 +6180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1970</v>
       </c>
@@ -6105,7 +6209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1970</v>
       </c>
@@ -6134,7 +6238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1970</v>
       </c>
@@ -6163,7 +6267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1970</v>
       </c>
@@ -6192,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1970</v>
       </c>
@@ -6221,7 +6325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1970</v>
       </c>
@@ -6250,7 +6354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1970</v>
       </c>
@@ -6279,7 +6383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1971</v>
       </c>
@@ -6308,7 +6412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1971</v>
       </c>
@@ -6337,7 +6441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1971</v>
       </c>
@@ -6366,7 +6470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1971</v>
       </c>
@@ -6395,7 +6499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1971</v>
       </c>
@@ -6424,7 +6528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1971</v>
       </c>
@@ -6453,7 +6557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1971</v>
       </c>
@@ -6482,7 +6586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1971</v>
       </c>
@@ -6511,7 +6615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1971</v>
       </c>
@@ -6540,7 +6644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1971</v>
       </c>
@@ -6569,7 +6673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1971</v>
       </c>
@@ -6598,7 +6702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1971</v>
       </c>
@@ -6627,7 +6731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1972</v>
       </c>
@@ -6656,7 +6760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1972</v>
       </c>
@@ -6685,7 +6789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1972</v>
       </c>
@@ -6714,7 +6818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1972</v>
       </c>
@@ -6743,7 +6847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1972</v>
       </c>
@@ -6772,7 +6876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1972</v>
       </c>
@@ -6801,7 +6905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1972</v>
       </c>
@@ -6830,7 +6934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1972</v>
       </c>
@@ -6859,7 +6963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1972</v>
       </c>
@@ -6888,7 +6992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1972</v>
       </c>
@@ -6917,7 +7021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1972</v>
       </c>
@@ -6946,7 +7050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1972</v>
       </c>
@@ -6975,7 +7079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1973</v>
       </c>
@@ -7004,7 +7108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1973</v>
       </c>
@@ -7033,7 +7137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1973</v>
       </c>
@@ -7062,7 +7166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1973</v>
       </c>
@@ -7091,7 +7195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1973</v>
       </c>
@@ -7120,7 +7224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1973</v>
       </c>
@@ -7149,7 +7253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1973</v>
       </c>
@@ -7178,7 +7282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1973</v>
       </c>
@@ -7207,7 +7311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1973</v>
       </c>
@@ -7236,7 +7340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1973</v>
       </c>
@@ -7265,7 +7369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -7294,7 +7398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1973</v>
       </c>
@@ -7323,7 +7427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1974</v>
       </c>
@@ -7352,7 +7456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1974</v>
       </c>
@@ -7381,7 +7485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1974</v>
       </c>
@@ -7410,7 +7514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1974</v>
       </c>
@@ -7439,7 +7543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1974</v>
       </c>
@@ -7468,7 +7572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1974</v>
       </c>
@@ -7497,7 +7601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1974</v>
       </c>
@@ -7526,7 +7630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1974</v>
       </c>
@@ -7555,7 +7659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1974</v>
       </c>
@@ -7584,7 +7688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1974</v>
       </c>
@@ -7613,7 +7717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1974</v>
       </c>
@@ -7642,7 +7746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1974</v>
       </c>
@@ -7671,7 +7775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1975</v>
       </c>
@@ -7700,7 +7804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1975</v>
       </c>
@@ -7729,7 +7833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1975</v>
       </c>
@@ -7758,7 +7862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1975</v>
       </c>
@@ -7787,7 +7891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1975</v>
       </c>
@@ -7816,7 +7920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1975</v>
       </c>
@@ -7845,7 +7949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1975</v>
       </c>
@@ -7874,7 +7978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1975</v>
       </c>
@@ -7903,7 +8007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1975</v>
       </c>
@@ -7932,7 +8036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1975</v>
       </c>
@@ -7961,7 +8065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1975</v>
       </c>
@@ -7990,7 +8094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1975</v>
       </c>
@@ -8019,7 +8123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1976</v>
       </c>
@@ -8048,7 +8152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1976</v>
       </c>
@@ -8077,7 +8181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1976</v>
       </c>
@@ -8106,7 +8210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1976</v>
       </c>
@@ -8135,7 +8239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1976</v>
       </c>
@@ -8164,7 +8268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1976</v>
       </c>
@@ -8193,7 +8297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1976</v>
       </c>
@@ -8222,7 +8326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1976</v>
       </c>
@@ -8251,7 +8355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1976</v>
       </c>
@@ -8280,7 +8384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1976</v>
       </c>
@@ -8309,7 +8413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1976</v>
       </c>
@@ -8338,7 +8442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1976</v>
       </c>
@@ -8367,7 +8471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1977</v>
       </c>
@@ -8396,7 +8500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1977</v>
       </c>
@@ -8425,7 +8529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1977</v>
       </c>
@@ -8454,7 +8558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1977</v>
       </c>
@@ -8483,7 +8587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1977</v>
       </c>
@@ -8512,7 +8616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1977</v>
       </c>
@@ -8541,7 +8645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1977</v>
       </c>
@@ -8570,7 +8674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1977</v>
       </c>
@@ -8599,7 +8703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1977</v>
       </c>
@@ -8628,7 +8732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1977</v>
       </c>
@@ -8657,7 +8761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1977</v>
       </c>
@@ -8686,7 +8790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1977</v>
       </c>
@@ -8715,7 +8819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1978</v>
       </c>
@@ -8744,7 +8848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1978</v>
       </c>
@@ -8773,7 +8877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1978</v>
       </c>
@@ -8802,7 +8906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1978</v>
       </c>
@@ -8831,7 +8935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1978</v>
       </c>
@@ -8860,7 +8964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1978</v>
       </c>
@@ -8889,7 +8993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1978</v>
       </c>
@@ -8918,7 +9022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1978</v>
       </c>
@@ -8947,7 +9051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1978</v>
       </c>
@@ -8976,7 +9080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1978</v>
       </c>
@@ -9005,7 +9109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1978</v>
       </c>
@@ -9034,7 +9138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1978</v>
       </c>
@@ -9063,7 +9167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1979</v>
       </c>
@@ -9092,7 +9196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1979</v>
       </c>
@@ -9121,7 +9225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1979</v>
       </c>
@@ -9150,7 +9254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1979</v>
       </c>
@@ -9179,7 +9283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1979</v>
       </c>
@@ -9208,7 +9312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1979</v>
       </c>
@@ -9237,7 +9341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1979</v>
       </c>
@@ -9266,7 +9370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1979</v>
       </c>
@@ -9295,7 +9399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1979</v>
       </c>
@@ -9324,7 +9428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1979</v>
       </c>
@@ -9353,7 +9457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1979</v>
       </c>
@@ -9382,7 +9486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1979</v>
       </c>
@@ -9411,7 +9515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1980</v>
       </c>
@@ -9440,7 +9544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1980</v>
       </c>
@@ -9469,7 +9573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1980</v>
       </c>
@@ -9498,7 +9602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1980</v>
       </c>
@@ -9527,7 +9631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1980</v>
       </c>
@@ -9556,7 +9660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1980</v>
       </c>
@@ -9585,7 +9689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1980</v>
       </c>
@@ -9614,7 +9718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1980</v>
       </c>
@@ -9643,7 +9747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1980</v>
       </c>
@@ -9672,7 +9776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1980</v>
       </c>
@@ -9701,7 +9805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1980</v>
       </c>
@@ -9730,7 +9834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1980</v>
       </c>
@@ -9759,7 +9863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1981</v>
       </c>
@@ -9788,7 +9892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1981</v>
       </c>
@@ -9817,7 +9921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1981</v>
       </c>
@@ -9846,7 +9950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1981</v>
       </c>
@@ -9875,7 +9979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1981</v>
       </c>
@@ -9904,7 +10008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1981</v>
       </c>
@@ -9933,7 +10037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1981</v>
       </c>
@@ -9962,7 +10066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1981</v>
       </c>
@@ -9991,7 +10095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1981</v>
       </c>
@@ -10020,7 +10124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1981</v>
       </c>
@@ -10049,7 +10153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1981</v>
       </c>
@@ -10078,7 +10182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1981</v>
       </c>
@@ -10107,7 +10211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1982</v>
       </c>
@@ -10136,7 +10240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1982</v>
       </c>
@@ -10165,7 +10269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1982</v>
       </c>
@@ -10194,7 +10298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1982</v>
       </c>
@@ -10223,7 +10327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1982</v>
       </c>
@@ -10252,7 +10356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1982</v>
       </c>
@@ -10281,7 +10385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1982</v>
       </c>
@@ -10310,7 +10414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1982</v>
       </c>
@@ -10339,7 +10443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1982</v>
       </c>
@@ -10368,7 +10472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1982</v>
       </c>
@@ -10397,7 +10501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1982</v>
       </c>
@@ -10426,7 +10530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1982</v>
       </c>
@@ -10455,7 +10559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1983</v>
       </c>
@@ -10484,7 +10588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1983</v>
       </c>
@@ -10513,7 +10617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1983</v>
       </c>
@@ -10542,7 +10646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1983</v>
       </c>
@@ -10571,7 +10675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1983</v>
       </c>
@@ -10600,7 +10704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1983</v>
       </c>
@@ -10629,7 +10733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1983</v>
       </c>
@@ -10658,7 +10762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1983</v>
       </c>
@@ -10687,7 +10791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1983</v>
       </c>
@@ -10716,7 +10820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1983</v>
       </c>
@@ -10745,7 +10849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1983</v>
       </c>
@@ -10774,7 +10878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1983</v>
       </c>
@@ -10803,7 +10907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1984</v>
       </c>
@@ -10832,7 +10936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1984</v>
       </c>
@@ -10861,7 +10965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1984</v>
       </c>
@@ -10890,7 +10994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1984</v>
       </c>
@@ -10919,7 +11023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1984</v>
       </c>
@@ -10948,7 +11052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1984</v>
       </c>
@@ -10977,7 +11081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1984</v>
       </c>
@@ -11006,7 +11110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1984</v>
       </c>
@@ -11035,7 +11139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1984</v>
       </c>
@@ -11064,7 +11168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1984</v>
       </c>
@@ -11093,7 +11197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1984</v>
       </c>
@@ -11122,7 +11226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1984</v>
       </c>
@@ -11151,7 +11255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1985</v>
       </c>
@@ -11180,7 +11284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1985</v>
       </c>
@@ -11209,7 +11313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1985</v>
       </c>
@@ -11238,7 +11342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1985</v>
       </c>
@@ -11267,7 +11371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1985</v>
       </c>
@@ -11296,7 +11400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1985</v>
       </c>
@@ -11325,7 +11429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1985</v>
       </c>
@@ -11354,7 +11458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1985</v>
       </c>
@@ -11383,7 +11487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1985</v>
       </c>
@@ -11412,7 +11516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1985</v>
       </c>
@@ -11441,7 +11545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1985</v>
       </c>
@@ -11470,7 +11574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1985</v>
       </c>
@@ -11499,7 +11603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1986</v>
       </c>
@@ -11528,7 +11632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1986</v>
       </c>
@@ -11557,7 +11661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1986</v>
       </c>
@@ -11586,7 +11690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1986</v>
       </c>
@@ -11615,7 +11719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1986</v>
       </c>
@@ -11644,7 +11748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1986</v>
       </c>
@@ -11673,7 +11777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1986</v>
       </c>
@@ -11702,7 +11806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1986</v>
       </c>
@@ -11731,7 +11835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1986</v>
       </c>
@@ -11760,7 +11864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1986</v>
       </c>
@@ -11789,7 +11893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1986</v>
       </c>
@@ -11818,7 +11922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1986</v>
       </c>
@@ -11847,7 +11951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1987</v>
       </c>
@@ -11876,7 +11980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1987</v>
       </c>
@@ -11905,7 +12009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1987</v>
       </c>
@@ -11934,7 +12038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1987</v>
       </c>
@@ -11963,7 +12067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1987</v>
       </c>
@@ -11992,7 +12096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1987</v>
       </c>
@@ -12021,7 +12125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1987</v>
       </c>
@@ -12050,7 +12154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1987</v>
       </c>
@@ -12079,7 +12183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1987</v>
       </c>
@@ -12108,7 +12212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1987</v>
       </c>
@@ -12137,7 +12241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1987</v>
       </c>
@@ -12166,7 +12270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1987</v>
       </c>
@@ -12195,7 +12299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1988</v>
       </c>
@@ -12224,7 +12328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1988</v>
       </c>
@@ -12253,7 +12357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1988</v>
       </c>
@@ -12282,7 +12386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1988</v>
       </c>
@@ -12311,7 +12415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1988</v>
       </c>
@@ -12340,7 +12444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1988</v>
       </c>
@@ -12369,7 +12473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1988</v>
       </c>
@@ -12398,7 +12502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1988</v>
       </c>
@@ -12427,7 +12531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1988</v>
       </c>
@@ -12456,7 +12560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1988</v>
       </c>
@@ -12485,7 +12589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1988</v>
       </c>
@@ -12514,7 +12618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1988</v>
       </c>
@@ -12543,7 +12647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1989</v>
       </c>
@@ -12572,7 +12676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1989</v>
       </c>
@@ -12601,7 +12705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1989</v>
       </c>
@@ -12630,7 +12734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1989</v>
       </c>
@@ -12659,7 +12763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1989</v>
       </c>
@@ -12688,7 +12792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1989</v>
       </c>
@@ -12717,7 +12821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1989</v>
       </c>
@@ -12746,7 +12850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1989</v>
       </c>
@@ -12775,7 +12879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1989</v>
       </c>
@@ -12804,7 +12908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1989</v>
       </c>
@@ -12833,7 +12937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1989</v>
       </c>
@@ -12862,7 +12966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1989</v>
       </c>
@@ -12891,7 +12995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1990</v>
       </c>
@@ -12920,7 +13024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1990</v>
       </c>
@@ -12949,7 +13053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1990</v>
       </c>
@@ -12978,7 +13082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1990</v>
       </c>
@@ -13007,7 +13111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1990</v>
       </c>
@@ -13036,7 +13140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1990</v>
       </c>
@@ -13065,7 +13169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1990</v>
       </c>
@@ -13094,7 +13198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1990</v>
       </c>
@@ -13123,7 +13227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1990</v>
       </c>
@@ -13152,7 +13256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1990</v>
       </c>
@@ -13181,7 +13285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1990</v>
       </c>
@@ -13210,7 +13314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1990</v>
       </c>
@@ -13239,7 +13343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1991</v>
       </c>
@@ -13268,7 +13372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1991</v>
       </c>
@@ -13297,7 +13401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1991</v>
       </c>
@@ -13326,7 +13430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1991</v>
       </c>
@@ -13355,7 +13459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1991</v>
       </c>
@@ -13384,7 +13488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1991</v>
       </c>
@@ -13413,7 +13517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1991</v>
       </c>
@@ -13442,7 +13546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1991</v>
       </c>
@@ -13471,7 +13575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1991</v>
       </c>
@@ -13500,7 +13604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1991</v>
       </c>
@@ -13529,7 +13633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1991</v>
       </c>
@@ -13558,7 +13662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1991</v>
       </c>
@@ -13587,7 +13691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1992</v>
       </c>
@@ -13616,7 +13720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1992</v>
       </c>
@@ -13645,7 +13749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1992</v>
       </c>
@@ -13674,7 +13778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1992</v>
       </c>
@@ -13703,7 +13807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1992</v>
       </c>
@@ -13732,7 +13836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1992</v>
       </c>
@@ -13761,7 +13865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1992</v>
       </c>
@@ -13790,7 +13894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1992</v>
       </c>
@@ -13819,7 +13923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1992</v>
       </c>
@@ -13848,7 +13952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1992</v>
       </c>
@@ -13877,7 +13981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1992</v>
       </c>
@@ -13906,7 +14010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1992</v>
       </c>
@@ -13935,7 +14039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1993</v>
       </c>
@@ -13964,7 +14068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1993</v>
       </c>
@@ -13993,7 +14097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1993</v>
       </c>
@@ -14022,7 +14126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1993</v>
       </c>
@@ -14051,7 +14155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1993</v>
       </c>
@@ -14080,7 +14184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1993</v>
       </c>
@@ -14109,7 +14213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1993</v>
       </c>
@@ -14138,7 +14242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1993</v>
       </c>
@@ -14167,7 +14271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1993</v>
       </c>
@@ -14196,7 +14300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1993</v>
       </c>
@@ -14225,7 +14329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1993</v>
       </c>
@@ -14254,7 +14358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1993</v>
       </c>
@@ -14283,7 +14387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1994</v>
       </c>
@@ -14312,7 +14416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1994</v>
       </c>
@@ -14341,7 +14445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1994</v>
       </c>
@@ -14370,7 +14474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1994</v>
       </c>
@@ -14399,7 +14503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1994</v>
       </c>
@@ -14428,7 +14532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1994</v>
       </c>
@@ -14457,7 +14561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1994</v>
       </c>
@@ -14486,7 +14590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1994</v>
       </c>
@@ -14515,7 +14619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1994</v>
       </c>
@@ -14544,7 +14648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1994</v>
       </c>
@@ -14573,7 +14677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1994</v>
       </c>
@@ -14602,7 +14706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1994</v>
       </c>
@@ -14631,7 +14735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1995</v>
       </c>
@@ -14660,7 +14764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1995</v>
       </c>
@@ -14689,7 +14793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1995</v>
       </c>
@@ -14718,7 +14822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1995</v>
       </c>
@@ -14747,7 +14851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1995</v>
       </c>
@@ -14776,7 +14880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1995</v>
       </c>
@@ -14805,7 +14909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1995</v>
       </c>
@@ -14834,7 +14938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1995</v>
       </c>
@@ -14863,7 +14967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1995</v>
       </c>
@@ -14892,7 +14996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1995</v>
       </c>
@@ -14921,7 +15025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1995</v>
       </c>
@@ -14950,7 +15054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1995</v>
       </c>
@@ -14979,7 +15083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1996</v>
       </c>
@@ -15008,7 +15112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1996</v>
       </c>
@@ -15037,7 +15141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1996</v>
       </c>
@@ -15066,7 +15170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1996</v>
       </c>
@@ -15095,7 +15199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1996</v>
       </c>
@@ -15124,7 +15228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1996</v>
       </c>
@@ -15153,7 +15257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1996</v>
       </c>
@@ -15182,7 +15286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1996</v>
       </c>
@@ -15211,7 +15315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1996</v>
       </c>
@@ -15240,7 +15344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1996</v>
       </c>
@@ -15269,7 +15373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1996</v>
       </c>
@@ -15298,7 +15402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1996</v>
       </c>
@@ -15327,7 +15431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1997</v>
       </c>
@@ -15356,7 +15460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1997</v>
       </c>
@@ -15385,7 +15489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1997</v>
       </c>
@@ -15414,7 +15518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1997</v>
       </c>
@@ -15443,7 +15547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1997</v>
       </c>
@@ -15472,7 +15576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1997</v>
       </c>
@@ -15501,7 +15605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1997</v>
       </c>
@@ -15530,7 +15634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1997</v>
       </c>
@@ -15559,7 +15663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1997</v>
       </c>
@@ -15588,7 +15692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1997</v>
       </c>
@@ -15617,7 +15721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1997</v>
       </c>
@@ -15646,7 +15750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1997</v>
       </c>
@@ -15675,7 +15779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1998</v>
       </c>
@@ -15704,7 +15808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1998</v>
       </c>
@@ -15733,7 +15837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1998</v>
       </c>
@@ -15762,7 +15866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1998</v>
       </c>
@@ -15791,7 +15895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1998</v>
       </c>
@@ -15820,7 +15924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1998</v>
       </c>
@@ -15849,7 +15953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1998</v>
       </c>
@@ -15878,7 +15982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1998</v>
       </c>
@@ -15907,7 +16011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1998</v>
       </c>
@@ -15936,7 +16040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1998</v>
       </c>
@@ -15965,7 +16069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1998</v>
       </c>
@@ -15994,7 +16098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1998</v>
       </c>
@@ -16023,7 +16127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1999</v>
       </c>
@@ -16052,7 +16156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1999</v>
       </c>
@@ -16081,7 +16185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1999</v>
       </c>
@@ -16110,7 +16214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1999</v>
       </c>
@@ -16139,7 +16243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1999</v>
       </c>
@@ -16168,7 +16272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1999</v>
       </c>
@@ -16197,7 +16301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1999</v>
       </c>
@@ -16226,7 +16330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1999</v>
       </c>
@@ -16255,7 +16359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1999</v>
       </c>
@@ -16284,7 +16388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1999</v>
       </c>
@@ -16313,7 +16417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1999</v>
       </c>
@@ -16342,7 +16446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1999</v>
       </c>
@@ -16371,7 +16475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2000</v>
       </c>
@@ -16400,7 +16504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2000</v>
       </c>
@@ -16429,7 +16533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2000</v>
       </c>
@@ -16458,7 +16562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2000</v>
       </c>
@@ -16487,7 +16591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2000</v>
       </c>
@@ -16516,7 +16620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2000</v>
       </c>
@@ -16545,7 +16649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2000</v>
       </c>
@@ -16574,7 +16678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2000</v>
       </c>
@@ -16603,7 +16707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2000</v>
       </c>
@@ -16632,7 +16736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2000</v>
       </c>
@@ -16661,7 +16765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2000</v>
       </c>
@@ -16690,7 +16794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2000</v>
       </c>
@@ -16719,7 +16823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2001</v>
       </c>
@@ -16748,7 +16852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2001</v>
       </c>
@@ -16777,7 +16881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2001</v>
       </c>
@@ -16806,7 +16910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2001</v>
       </c>
@@ -16835,7 +16939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2001</v>
       </c>
@@ -16864,7 +16968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2001</v>
       </c>
@@ -16893,7 +16997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2001</v>
       </c>
@@ -16922,7 +17026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2001</v>
       </c>
@@ -16951,7 +17055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2001</v>
       </c>
@@ -16980,7 +17084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2001</v>
       </c>
@@ -17009,7 +17113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2001</v>
       </c>
@@ -17038,7 +17142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2001</v>
       </c>
@@ -17067,7 +17171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2002</v>
       </c>
@@ -17096,7 +17200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2002</v>
       </c>
@@ -17125,7 +17229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2002</v>
       </c>
@@ -17154,7 +17258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2002</v>
       </c>
@@ -17183,7 +17287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2002</v>
       </c>
@@ -17212,7 +17316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2002</v>
       </c>
@@ -17241,7 +17345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2002</v>
       </c>
@@ -17270,7 +17374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2002</v>
       </c>
@@ -17299,7 +17403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2002</v>
       </c>
@@ -17328,7 +17432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2002</v>
       </c>
@@ -17357,7 +17461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2002</v>
       </c>
@@ -17386,7 +17490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2002</v>
       </c>
@@ -17415,7 +17519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2003</v>
       </c>
@@ -17444,7 +17548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2003</v>
       </c>
@@ -17473,7 +17577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2003</v>
       </c>
@@ -17502,7 +17606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2003</v>
       </c>
@@ -17531,7 +17635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2003</v>
       </c>
@@ -17560,7 +17664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2003</v>
       </c>
@@ -17589,7 +17693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2003</v>
       </c>
@@ -17618,7 +17722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2003</v>
       </c>
@@ -17647,7 +17751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2003</v>
       </c>
@@ -17676,7 +17780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2003</v>
       </c>
@@ -17705,7 +17809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2003</v>
       </c>
@@ -17734,7 +17838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2003</v>
       </c>
@@ -17763,7 +17867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2004</v>
       </c>
@@ -17792,7 +17896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2004</v>
       </c>
@@ -17821,7 +17925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2004</v>
       </c>
@@ -17850,7 +17954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2004</v>
       </c>
@@ -17879,7 +17983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2004</v>
       </c>
@@ -17908,7 +18012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2004</v>
       </c>
@@ -17937,7 +18041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2004</v>
       </c>
@@ -17966,7 +18070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2004</v>
       </c>
@@ -17995,7 +18099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2004</v>
       </c>
@@ -18024,7 +18128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2004</v>
       </c>
@@ -18053,7 +18157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2004</v>
       </c>
@@ -18082,7 +18186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2004</v>
       </c>
@@ -18111,7 +18215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2005</v>
       </c>
@@ -18140,7 +18244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2005</v>
       </c>
@@ -18169,7 +18273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2005</v>
       </c>
@@ -18198,7 +18302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2005</v>
       </c>
@@ -18227,7 +18331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2005</v>
       </c>
@@ -18256,7 +18360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2005</v>
       </c>
@@ -18285,7 +18389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2005</v>
       </c>
@@ -18314,7 +18418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2005</v>
       </c>
@@ -18343,7 +18447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2005</v>
       </c>
@@ -18372,7 +18476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2005</v>
       </c>
@@ -18401,7 +18505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2005</v>
       </c>
@@ -18430,7 +18534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2005</v>
       </c>
@@ -18459,7 +18563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2006</v>
       </c>
@@ -18488,7 +18592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2006</v>
       </c>
@@ -18517,7 +18621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2006</v>
       </c>
@@ -18546,7 +18650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2006</v>
       </c>
@@ -18575,7 +18679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2006</v>
       </c>
@@ -18604,7 +18708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2006</v>
       </c>
@@ -18633,7 +18737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2006</v>
       </c>
@@ -18662,7 +18766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2006</v>
       </c>
@@ -18691,7 +18795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2006</v>
       </c>
@@ -18720,7 +18824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2006</v>
       </c>
@@ -18749,7 +18853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2006</v>
       </c>
@@ -18778,7 +18882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2006</v>
       </c>
@@ -18807,7 +18911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2007</v>
       </c>
@@ -18836,7 +18940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2007</v>
       </c>
@@ -18865,7 +18969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2007</v>
       </c>
@@ -18894,7 +18998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2007</v>
       </c>
@@ -18923,7 +19027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2007</v>
       </c>
@@ -18952,7 +19056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2007</v>
       </c>
@@ -18981,7 +19085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2007</v>
       </c>
@@ -19010,7 +19114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2007</v>
       </c>
@@ -19039,7 +19143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2007</v>
       </c>
@@ -19068,7 +19172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2007</v>
       </c>
@@ -19097,7 +19201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2007</v>
       </c>
@@ -19126,7 +19230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2007</v>
       </c>
@@ -19155,7 +19259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2008</v>
       </c>
@@ -19184,7 +19288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2008</v>
       </c>
@@ -19213,7 +19317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2008</v>
       </c>
@@ -19242,7 +19346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2008</v>
       </c>
@@ -19271,7 +19375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2008</v>
       </c>
@@ -19300,7 +19404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2008</v>
       </c>
@@ -19329,7 +19433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2008</v>
       </c>
@@ -19358,7 +19462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2008</v>
       </c>
@@ -19387,7 +19491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2008</v>
       </c>
@@ -19416,7 +19520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2008</v>
       </c>
@@ -19445,7 +19549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2008</v>
       </c>
@@ -19474,7 +19578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2008</v>
       </c>
@@ -19503,7 +19607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2009</v>
       </c>
@@ -19532,7 +19636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2009</v>
       </c>
@@ -19561,7 +19665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2009</v>
       </c>
@@ -19590,7 +19694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2009</v>
       </c>
@@ -19619,7 +19723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2009</v>
       </c>
@@ -19648,7 +19752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2009</v>
       </c>
@@ -19677,7 +19781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2009</v>
       </c>
@@ -19706,7 +19810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2009</v>
       </c>
@@ -19735,7 +19839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2009</v>
       </c>
@@ -19764,7 +19868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2009</v>
       </c>
@@ -19793,7 +19897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2009</v>
       </c>
@@ -19822,7 +19926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2009</v>
       </c>
@@ -19851,7 +19955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2010</v>
       </c>
@@ -19880,7 +19984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2010</v>
       </c>
@@ -19909,7 +20013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2010</v>
       </c>
@@ -19938,7 +20042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2010</v>
       </c>
@@ -19967,7 +20071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2010</v>
       </c>
@@ -19996,7 +20100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2010</v>
       </c>
@@ -20025,7 +20129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2010</v>
       </c>
@@ -20054,7 +20158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2010</v>
       </c>
@@ -20083,7 +20187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2010</v>
       </c>
@@ -20112,7 +20216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2010</v>
       </c>
@@ -20141,7 +20245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2010</v>
       </c>
@@ -20170,7 +20274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2010</v>
       </c>
@@ -20199,7 +20303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2011</v>
       </c>
@@ -20228,7 +20332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2011</v>
       </c>
@@ -20257,7 +20361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2011</v>
       </c>
@@ -20286,7 +20390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2011</v>
       </c>
@@ -20315,7 +20419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2011</v>
       </c>
@@ -20344,7 +20448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2011</v>
       </c>
@@ -20373,7 +20477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2011</v>
       </c>
@@ -20402,7 +20506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2011</v>
       </c>
@@ -20431,7 +20535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2011</v>
       </c>
@@ -20460,7 +20564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2011</v>
       </c>
@@ -20489,7 +20593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2011</v>
       </c>
@@ -20518,7 +20622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2011</v>
       </c>
@@ -20547,7 +20651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2012</v>
       </c>
@@ -20576,7 +20680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2012</v>
       </c>
@@ -20605,7 +20709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2012</v>
       </c>
@@ -20634,7 +20738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2012</v>
       </c>
@@ -20663,7 +20767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2012</v>
       </c>
@@ -20692,7 +20796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2012</v>
       </c>
@@ -20721,7 +20825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2012</v>
       </c>
@@ -20750,7 +20854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2012</v>
       </c>
@@ -20779,7 +20883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2012</v>
       </c>
@@ -20808,7 +20912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2012</v>
       </c>
@@ -20837,7 +20941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2012</v>
       </c>
@@ -20866,7 +20970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2012</v>
       </c>
@@ -20895,7 +20999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2013</v>
       </c>
@@ -20924,7 +21028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2013</v>
       </c>
@@ -20953,7 +21057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2013</v>
       </c>
@@ -20982,7 +21086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2013</v>
       </c>
@@ -21011,7 +21115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2013</v>
       </c>
@@ -21040,7 +21144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2013</v>
       </c>
@@ -21069,7 +21173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2013</v>
       </c>
@@ -21098,7 +21202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2013</v>
       </c>
@@ -21127,7 +21231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2013</v>
       </c>
@@ -21156,7 +21260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2013</v>
       </c>
@@ -21185,7 +21289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2013</v>
       </c>
@@ -21214,7 +21318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2013</v>
       </c>
@@ -21243,7 +21347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2014</v>
       </c>
@@ -21272,7 +21376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2014</v>
       </c>
@@ -21301,7 +21405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2014</v>
       </c>
@@ -21330,7 +21434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2014</v>
       </c>
@@ -21359,7 +21463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2014</v>
       </c>
@@ -21388,7 +21492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2014</v>
       </c>
@@ -21417,7 +21521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2014</v>
       </c>
@@ -21446,7 +21550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2014</v>
       </c>
@@ -21475,7 +21579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2014</v>
       </c>
@@ -21504,7 +21608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2014</v>
       </c>
@@ -21533,7 +21637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2014</v>
       </c>
@@ -21562,7 +21666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2014</v>
       </c>
@@ -21591,7 +21695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2015</v>
       </c>
@@ -21620,7 +21724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2015</v>
       </c>
@@ -21649,7 +21753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2015</v>
       </c>
@@ -21678,7 +21782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2015</v>
       </c>
@@ -21707,7 +21811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2015</v>
       </c>
@@ -21736,7 +21840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2015</v>
       </c>
@@ -21765,7 +21869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2015</v>
       </c>
@@ -21794,7 +21898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2015</v>
       </c>
@@ -21823,7 +21927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2015</v>
       </c>
@@ -21852,7 +21956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2015</v>
       </c>
@@ -21881,7 +21985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2015</v>
       </c>
@@ -21910,7 +22014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2015</v>
       </c>
@@ -21939,7 +22043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2016</v>
       </c>
@@ -21968,7 +22072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2016</v>
       </c>
@@ -21997,7 +22101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2016</v>
       </c>
@@ -22026,7 +22130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2016</v>
       </c>
@@ -22055,7 +22159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2016</v>
       </c>
@@ -22084,7 +22188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2016</v>
       </c>
@@ -22113,7 +22217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>2016</v>
       </c>
@@ -22142,7 +22246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>2016</v>
       </c>
@@ -22171,7 +22275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2016</v>
       </c>
@@ -22200,7 +22304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>2016</v>
       </c>
@@ -22229,7 +22333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2016</v>
       </c>
@@ -22258,7 +22362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>2016</v>
       </c>
@@ -22287,7 +22391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>2017</v>
       </c>
@@ -22316,7 +22420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>2017</v>
       </c>
@@ -22345,7 +22449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>2017</v>
       </c>
@@ -22374,7 +22478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>2017</v>
       </c>
@@ -22403,7 +22507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>2017</v>
       </c>
@@ -22432,7 +22536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>2017</v>
       </c>
@@ -22461,7 +22565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>2017</v>
       </c>
@@ -22490,7 +22594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>2017</v>
       </c>
@@ -22519,7 +22623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>2017</v>
       </c>
@@ -22548,7 +22652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>2017</v>
       </c>
@@ -22577,7 +22681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>2017</v>
       </c>
@@ -22606,7 +22710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>2017</v>
       </c>
@@ -22635,7 +22739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>2018</v>
       </c>
@@ -22664,7 +22768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>2018</v>
       </c>
@@ -22693,7 +22797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>2018</v>
       </c>
@@ -22722,7 +22826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>2018</v>
       </c>
@@ -22751,7 +22855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>2018</v>
       </c>
@@ -22780,7 +22884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>2018</v>
       </c>
@@ -22809,7 +22913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2018</v>
       </c>
@@ -22838,7 +22942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>2018</v>
       </c>
@@ -22867,7 +22971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>2018</v>
       </c>
@@ -22896,7 +23000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2018</v>
       </c>
@@ -22925,7 +23029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>2018</v>
       </c>
@@ -22954,7 +23058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>2018</v>
       </c>
@@ -22983,7 +23087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>2019</v>
       </c>
@@ -23012,7 +23116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>2019</v>
       </c>
@@ -23041,7 +23145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>2019</v>
       </c>
@@ -23070,7 +23174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2019</v>
       </c>
@@ -23099,7 +23203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>2019</v>
       </c>
@@ -23128,7 +23232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>2019</v>
       </c>
@@ -23157,7 +23261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2019</v>
       </c>
@@ -23186,7 +23290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>2019</v>
       </c>
@@ -23215,7 +23319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>2019</v>
       </c>
@@ -23244,7 +23348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>2019</v>
       </c>
@@ -23273,7 +23377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>2019</v>
       </c>
@@ -23302,7 +23406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>2019</v>
       </c>
@@ -23331,7 +23435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>2020</v>
       </c>
@@ -23360,7 +23464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2020</v>
       </c>
@@ -23389,7 +23493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>2020</v>
       </c>
@@ -23418,7 +23522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>2020</v>
       </c>
@@ -23447,7 +23551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>2020</v>
       </c>
@@ -23476,7 +23580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>2020</v>
       </c>
@@ -23505,7 +23609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>2020</v>
       </c>
@@ -23534,7 +23638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>2020</v>
       </c>
@@ -23563,7 +23667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>2020</v>
       </c>
@@ -23592,7 +23696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>2020</v>
       </c>
@@ -23621,7 +23725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>2020</v>
       </c>
@@ -23650,7 +23754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>2020</v>
       </c>
@@ -23679,7 +23783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>2021</v>
       </c>
@@ -23708,7 +23812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>2021</v>
       </c>
@@ -23737,7 +23841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>2021</v>
       </c>
@@ -23766,7 +23870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>2021</v>
       </c>
@@ -23795,7 +23899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>2021</v>
       </c>
@@ -23824,7 +23928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>2021</v>
       </c>
@@ -23853,7 +23957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>2021</v>
       </c>
@@ -23882,7 +23986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>2021</v>
       </c>
@@ -23911,7 +24015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>2021</v>
       </c>
@@ -23940,7 +24044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>2021</v>
       </c>
@@ -23969,7 +24073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>2021</v>
       </c>
@@ -23998,7 +24102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>2021</v>
       </c>
@@ -24027,7 +24131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>2022</v>
       </c>
@@ -24056,7 +24160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2022</v>
       </c>
@@ -24085,7 +24189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>2022</v>
       </c>
@@ -24114,7 +24218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>2022</v>
       </c>
@@ -24143,7 +24247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>2022</v>
       </c>
@@ -24172,7 +24276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>2022</v>
       </c>
@@ -24201,7 +24305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>2022</v>
       </c>
@@ -24230,7 +24334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>2022</v>
       </c>
@@ -24259,7 +24363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>2022</v>
       </c>
@@ -24288,7 +24392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>2022</v>
       </c>
@@ -24317,7 +24421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>2022</v>
       </c>
@@ -24346,7 +24450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>2022</v>
       </c>
@@ -24375,7 +24479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>2023</v>
       </c>
@@ -24404,7 +24508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>2023</v>
       </c>
@@ -24433,7 +24537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>2023</v>
       </c>
@@ -24462,7 +24566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>2023</v>
       </c>
@@ -24491,7 +24595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>2023</v>
       </c>
@@ -24520,7 +24624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>2023</v>
       </c>
@@ -24549,7 +24653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>2023</v>
       </c>
@@ -24578,7 +24682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>2023</v>
       </c>
@@ -24607,7 +24711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>2023</v>
       </c>
@@ -24636,7 +24740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>2023</v>
       </c>
@@ -24678,9 +24782,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24691,7 +24795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24702,7 +24806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24726,9 +24830,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24739,7 +24843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24750,7 +24854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24761,7 +24865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -24772,7 +24876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -24783,7 +24887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -24794,7 +24898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24818,9 +24922,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24831,7 +24935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24842,7 +24946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24866,9 +24970,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24879,7 +24983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24890,7 +24994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24901,7 +25005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -24912,7 +25016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -24923,7 +25027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -24934,7 +25038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -24945,7 +25049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -24969,9 +25073,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24982,7 +25086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24993,7 +25097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -25004,7 +25108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -25015,7 +25119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -25026,7 +25130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -25037,7 +25141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -25048,7 +25152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -25059,7 +25163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -25077,15 +25181,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880D9CBF-DAC7-4AA5-AEFB-ACA489477AAB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -25096,7 +25200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -25104,18 +25208,95 @@
         <v>9.4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1905</v>
+      </c>
+      <c r="B3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1940</v>
+      </c>
+      <c r="B4">
+        <v>12.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1950</v>
+      </c>
+      <c r="B5">
+        <v>12.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1970</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1975</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>18.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2023</v>
       </c>
-      <c r="B3">
+      <c r="B10">
         <v>18.2</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="C10" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Documents\Data4Good\planetary-flag\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yeleconsultingsas-my.sharepoint.com/personal/bastien_gauthier_yele_fr/Documents/Documents/21_Chantiers_internes/Clones_git/planetary-flag/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00205129-BB00-4A8B-A885-EB1DA01180F9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="885" firstSheet="6" activeTab="9" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="118">
   <si>
     <t>Concentration de CO2 dans l'atmosphère
 PPM</t>
@@ -402,11 +402,26 @@
   <si>
     <t>Extrapolation</t>
   </si>
+  <si>
+    <t>Earth beyond six of nine planetary boundaries - PMC (nih.gov)</t>
+  </si>
+  <si>
+    <t>Earth beyond six of nine planetary boundaries</t>
+  </si>
+  <si>
+    <t>NPP</t>
+  </si>
+  <si>
+    <t>Earth beyond six of nine planetary boundaries (table S1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,6 +515,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -820,18 +836,18 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -878,7 +894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
@@ -916,7 +932,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>89</v>
       </c>
@@ -954,7 +970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -992,7 +1008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1112,7 +1128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1159,7 +1175,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>92</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -1311,7 +1327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1359,13 +1375,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4E9548-592A-4735-BB68-D64A6EDDC2A7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1376,7 +1392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1387,7 +1403,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1929</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1939</v>
       </c>
@@ -1420,7 +1436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1950</v>
       </c>
@@ -1431,7 +1447,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1970</v>
       </c>
@@ -1442,7 +1458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1975</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -1464,7 +1480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1488,9 +1504,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1512,7 +1528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -1556,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -1580,9 +1596,9 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1604,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -1622,45 +1638,146 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC42EC6-BBB1-478B-8542-80B2B5E7315C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>55.9</v>
+      </c>
+      <c r="C2" s="7">
+        <f>100*(1-(B2/$B$2))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1850</v>
       </c>
-      <c r="B2">
-        <v>1.9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B3">
+        <v>54.7</v>
+      </c>
+      <c r="C3" s="7">
+        <f>100*(1-(B3/$B$2))</f>
+        <v>2.1466905187835339</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1925</v>
+      </c>
+      <c r="B4">
+        <v>47.8</v>
+      </c>
+      <c r="C4" s="7">
+        <f>100*(1-(B4/$B$2))</f>
+        <v>14.490161001788914</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1950</v>
+      </c>
+      <c r="B5">
+        <v>46.2</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C9" si="0">100*(1-(B5/$B$2))</f>
+        <v>17.352415026833622</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1975</v>
+      </c>
+      <c r="B6">
+        <v>43.5</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>22.182468694096602</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>41.4</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>25.939177101967804</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>29.874776386404289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
+      <c r="B9">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>29.874776386404289</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1676,9 +1793,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1700,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -1712,7 +1829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1724,7 +1841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -1745,15 +1862,15 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1781,7 +1898,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1795,7 +1912,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1809,7 +1926,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1823,7 +1940,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1837,7 +1954,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1849,6 +1966,20 @@
       </c>
       <c r="D7" s="3">
         <v>45070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45182</v>
       </c>
     </row>
   </sheetData>
@@ -1859,6 +1990,7 @@
     <hyperlink ref="C5" r:id="rId4" display="https://gml.noaa.gov/webdata/ccgg/trends/co2/co2_mm_mlo.txt" xr:uid="{086B5ADE-DFAF-4609-B81B-C55EAF31EDA7}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://pubs.acs.org/doi/10.1021/acs.est.1c04158" xr:uid="{A26E87A5-19E1-4373-B44D-571DA4702664}"/>
     <hyperlink ref="C7" r:id="rId6" display="https://eartharxiv.org/repository/view/3438/" xr:uid="{4531B76C-59AB-469E-884C-B842EBEDF156}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10499318/" xr:uid="{A076949A-2331-4CA7-A20B-5D5C7A888422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1872,9 +2004,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1903,7 +2035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -1917,7 +2049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1958</v>
       </c>
@@ -1946,7 +2078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1958</v>
       </c>
@@ -1975,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1958</v>
       </c>
@@ -2004,7 +2136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1958</v>
       </c>
@@ -2033,7 +2165,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1958</v>
       </c>
@@ -2062,7 +2194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1958</v>
       </c>
@@ -2091,7 +2223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1958</v>
       </c>
@@ -2120,7 +2252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -2149,7 +2281,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -2178,7 +2310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1958</v>
       </c>
@@ -2207,7 +2339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1959</v>
       </c>
@@ -2236,7 +2368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1959</v>
       </c>
@@ -2265,7 +2397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1959</v>
       </c>
@@ -2294,7 +2426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1959</v>
       </c>
@@ -2323,7 +2455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1959</v>
       </c>
@@ -2352,7 +2484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1959</v>
       </c>
@@ -2381,7 +2513,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1959</v>
       </c>
@@ -2410,7 +2542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1959</v>
       </c>
@@ -2439,7 +2571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1959</v>
       </c>
@@ -2468,7 +2600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1959</v>
       </c>
@@ -2497,7 +2629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1959</v>
       </c>
@@ -2526,7 +2658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1959</v>
       </c>
@@ -2555,7 +2687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1960</v>
       </c>
@@ -2584,7 +2716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1960</v>
       </c>
@@ -2613,7 +2745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1960</v>
       </c>
@@ -2642,7 +2774,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1960</v>
       </c>
@@ -2671,7 +2803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1960</v>
       </c>
@@ -2700,7 +2832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1960</v>
       </c>
@@ -2729,7 +2861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1960</v>
       </c>
@@ -2758,7 +2890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1960</v>
       </c>
@@ -2787,7 +2919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1960</v>
       </c>
@@ -2816,7 +2948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1960</v>
       </c>
@@ -2845,7 +2977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1960</v>
       </c>
@@ -2874,7 +3006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1960</v>
       </c>
@@ -2903,7 +3035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1961</v>
       </c>
@@ -2932,7 +3064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1961</v>
       </c>
@@ -2961,7 +3093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1961</v>
       </c>
@@ -2990,7 +3122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1961</v>
       </c>
@@ -3019,7 +3151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1961</v>
       </c>
@@ -3048,7 +3180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1961</v>
       </c>
@@ -3077,7 +3209,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1961</v>
       </c>
@@ -3106,7 +3238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1961</v>
       </c>
@@ -3135,7 +3267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1961</v>
       </c>
@@ -3164,7 +3296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1961</v>
       </c>
@@ -3193,7 +3325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1961</v>
       </c>
@@ -3222,7 +3354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1961</v>
       </c>
@@ -3251,7 +3383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1962</v>
       </c>
@@ -3280,7 +3412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1962</v>
       </c>
@@ -3309,7 +3441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1962</v>
       </c>
@@ -3338,7 +3470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1962</v>
       </c>
@@ -3367,7 +3499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1962</v>
       </c>
@@ -3396,7 +3528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1962</v>
       </c>
@@ -3425,7 +3557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1962</v>
       </c>
@@ -3454,7 +3586,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1962</v>
       </c>
@@ -3483,7 +3615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1962</v>
       </c>
@@ -3512,7 +3644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1962</v>
       </c>
@@ -3541,7 +3673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1962</v>
       </c>
@@ -3570,7 +3702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1962</v>
       </c>
@@ -3599,7 +3731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1963</v>
       </c>
@@ -3628,7 +3760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1963</v>
       </c>
@@ -3657,7 +3789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1963</v>
       </c>
@@ -3686,7 +3818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1963</v>
       </c>
@@ -3715,7 +3847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1963</v>
       </c>
@@ -3744,7 +3876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1963</v>
       </c>
@@ -3773,7 +3905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1963</v>
       </c>
@@ -3802,7 +3934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1963</v>
       </c>
@@ -3831,7 +3963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1963</v>
       </c>
@@ -3860,7 +3992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1963</v>
       </c>
@@ -3889,7 +4021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1963</v>
       </c>
@@ -3918,7 +4050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1963</v>
       </c>
@@ -3947,7 +4079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1964</v>
       </c>
@@ -3976,7 +4108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1964</v>
       </c>
@@ -4005,7 +4137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1964</v>
       </c>
@@ -4034,7 +4166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1964</v>
       </c>
@@ -4063,7 +4195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1964</v>
       </c>
@@ -4092,7 +4224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1964</v>
       </c>
@@ -4121,7 +4253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1964</v>
       </c>
@@ -4150,7 +4282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1964</v>
       </c>
@@ -4179,7 +4311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1964</v>
       </c>
@@ -4208,7 +4340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1964</v>
       </c>
@@ -4237,7 +4369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1964</v>
       </c>
@@ -4266,7 +4398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1964</v>
       </c>
@@ -4295,7 +4427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1965</v>
       </c>
@@ -4324,7 +4456,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1965</v>
       </c>
@@ -4353,7 +4485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1965</v>
       </c>
@@ -4382,7 +4514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1965</v>
       </c>
@@ -4411,7 +4543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1965</v>
       </c>
@@ -4440,7 +4572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1965</v>
       </c>
@@ -4469,7 +4601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1965</v>
       </c>
@@ -4498,7 +4630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1965</v>
       </c>
@@ -4527,7 +4659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1965</v>
       </c>
@@ -4556,7 +4688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1965</v>
       </c>
@@ -4585,7 +4717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1965</v>
       </c>
@@ -4614,7 +4746,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1965</v>
       </c>
@@ -4643,7 +4775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1966</v>
       </c>
@@ -4672,7 +4804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1966</v>
       </c>
@@ -4701,7 +4833,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1966</v>
       </c>
@@ -4730,7 +4862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1966</v>
       </c>
@@ -4759,7 +4891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1966</v>
       </c>
@@ -4788,7 +4920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1966</v>
       </c>
@@ -4817,7 +4949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1966</v>
       </c>
@@ -4846,7 +4978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1966</v>
       </c>
@@ -4875,7 +5007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1966</v>
       </c>
@@ -4904,7 +5036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1966</v>
       </c>
@@ -4933,7 +5065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1966</v>
       </c>
@@ -4962,7 +5094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1966</v>
       </c>
@@ -4991,7 +5123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1967</v>
       </c>
@@ -5020,7 +5152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1967</v>
       </c>
@@ -5049,7 +5181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1967</v>
       </c>
@@ -5078,7 +5210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1967</v>
       </c>
@@ -5107,7 +5239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1967</v>
       </c>
@@ -5136,7 +5268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1967</v>
       </c>
@@ -5165,7 +5297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1967</v>
       </c>
@@ -5194,7 +5326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1967</v>
       </c>
@@ -5223,7 +5355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1967</v>
       </c>
@@ -5252,7 +5384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1967</v>
       </c>
@@ -5281,7 +5413,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1967</v>
       </c>
@@ -5310,7 +5442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1967</v>
       </c>
@@ -5339,7 +5471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1968</v>
       </c>
@@ -5368,7 +5500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1968</v>
       </c>
@@ -5397,7 +5529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1968</v>
       </c>
@@ -5426,7 +5558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1968</v>
       </c>
@@ -5455,7 +5587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1968</v>
       </c>
@@ -5484,7 +5616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1968</v>
       </c>
@@ -5513,7 +5645,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1968</v>
       </c>
@@ -5542,7 +5674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1968</v>
       </c>
@@ -5571,7 +5703,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1968</v>
       </c>
@@ -5600,7 +5732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1968</v>
       </c>
@@ -5629,7 +5761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1968</v>
       </c>
@@ -5658,7 +5790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1968</v>
       </c>
@@ -5687,7 +5819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1969</v>
       </c>
@@ -5716,7 +5848,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1969</v>
       </c>
@@ -5745,7 +5877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1969</v>
       </c>
@@ -5774,7 +5906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1969</v>
       </c>
@@ -5803,7 +5935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1969</v>
       </c>
@@ -5832,7 +5964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1969</v>
       </c>
@@ -5861,7 +5993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1969</v>
       </c>
@@ -5890,7 +6022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1969</v>
       </c>
@@ -5919,7 +6051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1969</v>
       </c>
@@ -5948,7 +6080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1969</v>
       </c>
@@ -5977,7 +6109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1969</v>
       </c>
@@ -6006,7 +6138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1969</v>
       </c>
@@ -6035,7 +6167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1970</v>
       </c>
@@ -6064,7 +6196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1970</v>
       </c>
@@ -6093,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1970</v>
       </c>
@@ -6122,7 +6254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1970</v>
       </c>
@@ -6151,7 +6283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1970</v>
       </c>
@@ -6180,7 +6312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1970</v>
       </c>
@@ -6209,7 +6341,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1970</v>
       </c>
@@ -6238,7 +6370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1970</v>
       </c>
@@ -6267,7 +6399,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1970</v>
       </c>
@@ -6296,7 +6428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1970</v>
       </c>
@@ -6325,7 +6457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1970</v>
       </c>
@@ -6354,7 +6486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1970</v>
       </c>
@@ -6383,7 +6515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1971</v>
       </c>
@@ -6412,7 +6544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1971</v>
       </c>
@@ -6441,7 +6573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1971</v>
       </c>
@@ -6470,7 +6602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1971</v>
       </c>
@@ -6499,7 +6631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1971</v>
       </c>
@@ -6528,7 +6660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1971</v>
       </c>
@@ -6557,7 +6689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1971</v>
       </c>
@@ -6586,7 +6718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1971</v>
       </c>
@@ -6615,7 +6747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1971</v>
       </c>
@@ -6644,7 +6776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1971</v>
       </c>
@@ -6673,7 +6805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1971</v>
       </c>
@@ -6702,7 +6834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1971</v>
       </c>
@@ -6731,7 +6863,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1972</v>
       </c>
@@ -6760,7 +6892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1972</v>
       </c>
@@ -6789,7 +6921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1972</v>
       </c>
@@ -6818,7 +6950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1972</v>
       </c>
@@ -6847,7 +6979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1972</v>
       </c>
@@ -6876,7 +7008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1972</v>
       </c>
@@ -6905,7 +7037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1972</v>
       </c>
@@ -6934,7 +7066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1972</v>
       </c>
@@ -6963,7 +7095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1972</v>
       </c>
@@ -6992,7 +7124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1972</v>
       </c>
@@ -7021,7 +7153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1972</v>
       </c>
@@ -7050,7 +7182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1972</v>
       </c>
@@ -7079,7 +7211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1973</v>
       </c>
@@ -7108,7 +7240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1973</v>
       </c>
@@ -7137,7 +7269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1973</v>
       </c>
@@ -7166,7 +7298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1973</v>
       </c>
@@ -7195,7 +7327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1973</v>
       </c>
@@ -7224,7 +7356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1973</v>
       </c>
@@ -7253,7 +7385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1973</v>
       </c>
@@ -7282,7 +7414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1973</v>
       </c>
@@ -7311,7 +7443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1973</v>
       </c>
@@ -7340,7 +7472,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1973</v>
       </c>
@@ -7369,7 +7501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -7398,7 +7530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1973</v>
       </c>
@@ -7427,7 +7559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1974</v>
       </c>
@@ -7456,7 +7588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1974</v>
       </c>
@@ -7485,7 +7617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1974</v>
       </c>
@@ -7514,7 +7646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1974</v>
       </c>
@@ -7543,7 +7675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1974</v>
       </c>
@@ -7572,7 +7704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1974</v>
       </c>
@@ -7601,7 +7733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1974</v>
       </c>
@@ -7630,7 +7762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1974</v>
       </c>
@@ -7659,7 +7791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1974</v>
       </c>
@@ -7688,7 +7820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1974</v>
       </c>
@@ -7717,7 +7849,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1974</v>
       </c>
@@ -7746,7 +7878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1974</v>
       </c>
@@ -7775,7 +7907,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1975</v>
       </c>
@@ -7804,7 +7936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1975</v>
       </c>
@@ -7833,7 +7965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1975</v>
       </c>
@@ -7862,7 +7994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1975</v>
       </c>
@@ -7891,7 +8023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1975</v>
       </c>
@@ -7920,7 +8052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1975</v>
       </c>
@@ -7949,7 +8081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1975</v>
       </c>
@@ -7978,7 +8110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1975</v>
       </c>
@@ -8007,7 +8139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1975</v>
       </c>
@@ -8036,7 +8168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1975</v>
       </c>
@@ -8065,7 +8197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1975</v>
       </c>
@@ -8094,7 +8226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1975</v>
       </c>
@@ -8123,7 +8255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1976</v>
       </c>
@@ -8152,7 +8284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1976</v>
       </c>
@@ -8181,7 +8313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1976</v>
       </c>
@@ -8210,7 +8342,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1976</v>
       </c>
@@ -8239,7 +8371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1976</v>
       </c>
@@ -8268,7 +8400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1976</v>
       </c>
@@ -8297,7 +8429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1976</v>
       </c>
@@ -8326,7 +8458,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1976</v>
       </c>
@@ -8355,7 +8487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1976</v>
       </c>
@@ -8384,7 +8516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1976</v>
       </c>
@@ -8413,7 +8545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1976</v>
       </c>
@@ -8442,7 +8574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1976</v>
       </c>
@@ -8471,7 +8603,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1977</v>
       </c>
@@ -8500,7 +8632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1977</v>
       </c>
@@ -8529,7 +8661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1977</v>
       </c>
@@ -8558,7 +8690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1977</v>
       </c>
@@ -8587,7 +8719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1977</v>
       </c>
@@ -8616,7 +8748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1977</v>
       </c>
@@ -8645,7 +8777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1977</v>
       </c>
@@ -8674,7 +8806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1977</v>
       </c>
@@ -8703,7 +8835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1977</v>
       </c>
@@ -8732,7 +8864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1977</v>
       </c>
@@ -8761,7 +8893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1977</v>
       </c>
@@ -8790,7 +8922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1977</v>
       </c>
@@ -8819,7 +8951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1978</v>
       </c>
@@ -8848,7 +8980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1978</v>
       </c>
@@ -8877,7 +9009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1978</v>
       </c>
@@ -8906,7 +9038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1978</v>
       </c>
@@ -8935,7 +9067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1978</v>
       </c>
@@ -8964,7 +9096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1978</v>
       </c>
@@ -8993,7 +9125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1978</v>
       </c>
@@ -9022,7 +9154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1978</v>
       </c>
@@ -9051,7 +9183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1978</v>
       </c>
@@ -9080,7 +9212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1978</v>
       </c>
@@ -9109,7 +9241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1978</v>
       </c>
@@ -9138,7 +9270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1978</v>
       </c>
@@ -9167,7 +9299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1979</v>
       </c>
@@ -9196,7 +9328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1979</v>
       </c>
@@ -9225,7 +9357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1979</v>
       </c>
@@ -9254,7 +9386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1979</v>
       </c>
@@ -9283,7 +9415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1979</v>
       </c>
@@ -9312,7 +9444,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1979</v>
       </c>
@@ -9341,7 +9473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1979</v>
       </c>
@@ -9370,7 +9502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1979</v>
       </c>
@@ -9399,7 +9531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1979</v>
       </c>
@@ -9428,7 +9560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1979</v>
       </c>
@@ -9457,7 +9589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1979</v>
       </c>
@@ -9486,7 +9618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1979</v>
       </c>
@@ -9515,7 +9647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1980</v>
       </c>
@@ -9544,7 +9676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1980</v>
       </c>
@@ -9573,7 +9705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1980</v>
       </c>
@@ -9602,7 +9734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1980</v>
       </c>
@@ -9631,7 +9763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1980</v>
       </c>
@@ -9660,7 +9792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1980</v>
       </c>
@@ -9689,7 +9821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1980</v>
       </c>
@@ -9718,7 +9850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1980</v>
       </c>
@@ -9747,7 +9879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1980</v>
       </c>
@@ -9776,7 +9908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1980</v>
       </c>
@@ -9805,7 +9937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1980</v>
       </c>
@@ -9834,7 +9966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1980</v>
       </c>
@@ -9863,7 +9995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1981</v>
       </c>
@@ -9892,7 +10024,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1981</v>
       </c>
@@ -9921,7 +10053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1981</v>
       </c>
@@ -9950,7 +10082,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1981</v>
       </c>
@@ -9979,7 +10111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1981</v>
       </c>
@@ -10008,7 +10140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1981</v>
       </c>
@@ -10037,7 +10169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1981</v>
       </c>
@@ -10066,7 +10198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1981</v>
       </c>
@@ -10095,7 +10227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1981</v>
       </c>
@@ -10124,7 +10256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1981</v>
       </c>
@@ -10153,7 +10285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1981</v>
       </c>
@@ -10182,7 +10314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1981</v>
       </c>
@@ -10211,7 +10343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1982</v>
       </c>
@@ -10240,7 +10372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1982</v>
       </c>
@@ -10269,7 +10401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1982</v>
       </c>
@@ -10298,7 +10430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1982</v>
       </c>
@@ -10327,7 +10459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1982</v>
       </c>
@@ -10356,7 +10488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1982</v>
       </c>
@@ -10385,7 +10517,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1982</v>
       </c>
@@ -10414,7 +10546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1982</v>
       </c>
@@ -10443,7 +10575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1982</v>
       </c>
@@ -10472,7 +10604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1982</v>
       </c>
@@ -10501,7 +10633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1982</v>
       </c>
@@ -10530,7 +10662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1982</v>
       </c>
@@ -10559,7 +10691,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1983</v>
       </c>
@@ -10588,7 +10720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1983</v>
       </c>
@@ -10617,7 +10749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1983</v>
       </c>
@@ -10646,7 +10778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1983</v>
       </c>
@@ -10675,7 +10807,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1983</v>
       </c>
@@ -10704,7 +10836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1983</v>
       </c>
@@ -10733,7 +10865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1983</v>
       </c>
@@ -10762,7 +10894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1983</v>
       </c>
@@ -10791,7 +10923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1983</v>
       </c>
@@ -10820,7 +10952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1983</v>
       </c>
@@ -10849,7 +10981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1983</v>
       </c>
@@ -10878,7 +11010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1983</v>
       </c>
@@ -10907,7 +11039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1984</v>
       </c>
@@ -10936,7 +11068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1984</v>
       </c>
@@ -10965,7 +11097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1984</v>
       </c>
@@ -10994,7 +11126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1984</v>
       </c>
@@ -11023,7 +11155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1984</v>
       </c>
@@ -11052,7 +11184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1984</v>
       </c>
@@ -11081,7 +11213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1984</v>
       </c>
@@ -11110,7 +11242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1984</v>
       </c>
@@ -11139,7 +11271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1984</v>
       </c>
@@ -11168,7 +11300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1984</v>
       </c>
@@ -11197,7 +11329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1984</v>
       </c>
@@ -11226,7 +11358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1984</v>
       </c>
@@ -11255,7 +11387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1985</v>
       </c>
@@ -11284,7 +11416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1985</v>
       </c>
@@ -11313,7 +11445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1985</v>
       </c>
@@ -11342,7 +11474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1985</v>
       </c>
@@ -11371,7 +11503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1985</v>
       </c>
@@ -11400,7 +11532,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1985</v>
       </c>
@@ -11429,7 +11561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1985</v>
       </c>
@@ -11458,7 +11590,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1985</v>
       </c>
@@ -11487,7 +11619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1985</v>
       </c>
@@ -11516,7 +11648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1985</v>
       </c>
@@ -11545,7 +11677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1985</v>
       </c>
@@ -11574,7 +11706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1985</v>
       </c>
@@ -11603,7 +11735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1986</v>
       </c>
@@ -11632,7 +11764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1986</v>
       </c>
@@ -11661,7 +11793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1986</v>
       </c>
@@ -11690,7 +11822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1986</v>
       </c>
@@ -11719,7 +11851,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1986</v>
       </c>
@@ -11748,7 +11880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1986</v>
       </c>
@@ -11777,7 +11909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1986</v>
       </c>
@@ -11806,7 +11938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1986</v>
       </c>
@@ -11835,7 +11967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1986</v>
       </c>
@@ -11864,7 +11996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1986</v>
       </c>
@@ -11893,7 +12025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1986</v>
       </c>
@@ -11922,7 +12054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1986</v>
       </c>
@@ -11951,7 +12083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>1987</v>
       </c>
@@ -11980,7 +12112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1987</v>
       </c>
@@ -12009,7 +12141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1987</v>
       </c>
@@ -12038,7 +12170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>1987</v>
       </c>
@@ -12067,7 +12199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1987</v>
       </c>
@@ -12096,7 +12228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1987</v>
       </c>
@@ -12125,7 +12257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1987</v>
       </c>
@@ -12154,7 +12286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1987</v>
       </c>
@@ -12183,7 +12315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1987</v>
       </c>
@@ -12212,7 +12344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1987</v>
       </c>
@@ -12241,7 +12373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1987</v>
       </c>
@@ -12270,7 +12402,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1987</v>
       </c>
@@ -12299,7 +12431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1988</v>
       </c>
@@ -12328,7 +12460,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>1988</v>
       </c>
@@ -12357,7 +12489,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1988</v>
       </c>
@@ -12386,7 +12518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1988</v>
       </c>
@@ -12415,7 +12547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1988</v>
       </c>
@@ -12444,7 +12576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1988</v>
       </c>
@@ -12473,7 +12605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1988</v>
       </c>
@@ -12502,7 +12634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1988</v>
       </c>
@@ -12531,7 +12663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1988</v>
       </c>
@@ -12560,7 +12692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>1988</v>
       </c>
@@ -12589,7 +12721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>1988</v>
       </c>
@@ -12618,7 +12750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>1988</v>
       </c>
@@ -12647,7 +12779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1989</v>
       </c>
@@ -12676,7 +12808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1989</v>
       </c>
@@ -12705,7 +12837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1989</v>
       </c>
@@ -12734,7 +12866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1989</v>
       </c>
@@ -12763,7 +12895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1989</v>
       </c>
@@ -12792,7 +12924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>1989</v>
       </c>
@@ -12821,7 +12953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1989</v>
       </c>
@@ -12850,7 +12982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1989</v>
       </c>
@@ -12879,7 +13011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1989</v>
       </c>
@@ -12908,7 +13040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1989</v>
       </c>
@@ -12937,7 +13069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1989</v>
       </c>
@@ -12966,7 +13098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>1989</v>
       </c>
@@ -12995,7 +13127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1990</v>
       </c>
@@ -13024,7 +13156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>1990</v>
       </c>
@@ -13053,7 +13185,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>1990</v>
       </c>
@@ -13082,7 +13214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>1990</v>
       </c>
@@ -13111,7 +13243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1990</v>
       </c>
@@ -13140,7 +13272,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1990</v>
       </c>
@@ -13169,7 +13301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1990</v>
       </c>
@@ -13198,7 +13330,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1990</v>
       </c>
@@ -13227,7 +13359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>1990</v>
       </c>
@@ -13256,7 +13388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>1990</v>
       </c>
@@ -13285,7 +13417,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>1990</v>
       </c>
@@ -13314,7 +13446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>1990</v>
       </c>
@@ -13343,7 +13475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1991</v>
       </c>
@@ -13372,7 +13504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1991</v>
       </c>
@@ -13401,7 +13533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1991</v>
       </c>
@@ -13430,7 +13562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1991</v>
       </c>
@@ -13459,7 +13591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1991</v>
       </c>
@@ -13488,7 +13620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1991</v>
       </c>
@@ -13517,7 +13649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>1991</v>
       </c>
@@ -13546,7 +13678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>1991</v>
       </c>
@@ -13575,7 +13707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1991</v>
       </c>
@@ -13604,7 +13736,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1991</v>
       </c>
@@ -13633,7 +13765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1991</v>
       </c>
@@ -13662,7 +13794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1991</v>
       </c>
@@ -13691,7 +13823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1992</v>
       </c>
@@ -13720,7 +13852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>1992</v>
       </c>
@@ -13749,7 +13881,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1992</v>
       </c>
@@ -13778,7 +13910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>1992</v>
       </c>
@@ -13807,7 +13939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>1992</v>
       </c>
@@ -13836,7 +13968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1992</v>
       </c>
@@ -13865,7 +13997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>1992</v>
       </c>
@@ -13894,7 +14026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1992</v>
       </c>
@@ -13923,7 +14055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1992</v>
       </c>
@@ -13952,7 +14084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>1992</v>
       </c>
@@ -13981,7 +14113,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1992</v>
       </c>
@@ -14010,7 +14142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1992</v>
       </c>
@@ -14039,7 +14171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1993</v>
       </c>
@@ -14068,7 +14200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1993</v>
       </c>
@@ -14097,7 +14229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1993</v>
       </c>
@@ -14126,7 +14258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1993</v>
       </c>
@@ -14155,7 +14287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>1993</v>
       </c>
@@ -14184,7 +14316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>1993</v>
       </c>
@@ -14213,7 +14345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>1993</v>
       </c>
@@ -14242,7 +14374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1993</v>
       </c>
@@ -14271,7 +14403,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1993</v>
       </c>
@@ -14300,7 +14432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1993</v>
       </c>
@@ -14329,7 +14461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1993</v>
       </c>
@@ -14358,7 +14490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1993</v>
       </c>
@@ -14387,7 +14519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1994</v>
       </c>
@@ -14416,7 +14548,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1994</v>
       </c>
@@ -14445,7 +14577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1994</v>
       </c>
@@ -14474,7 +14606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>1994</v>
       </c>
@@ -14503,7 +14635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>1994</v>
       </c>
@@ -14532,7 +14664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1994</v>
       </c>
@@ -14561,7 +14693,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>1994</v>
       </c>
@@ -14590,7 +14722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1994</v>
       </c>
@@ -14619,7 +14751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1994</v>
       </c>
@@ -14648,7 +14780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1994</v>
       </c>
@@ -14677,7 +14809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1994</v>
       </c>
@@ -14706,7 +14838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1994</v>
       </c>
@@ -14735,7 +14867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>1995</v>
       </c>
@@ -14764,7 +14896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1995</v>
       </c>
@@ -14793,7 +14925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>1995</v>
       </c>
@@ -14822,7 +14954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1995</v>
       </c>
@@ -14851,7 +14983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1995</v>
       </c>
@@ -14880,7 +15012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>1995</v>
       </c>
@@ -14909,7 +15041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1995</v>
       </c>
@@ -14938,7 +15070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1995</v>
       </c>
@@ -14967,7 +15099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1995</v>
       </c>
@@ -14996,7 +15128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1995</v>
       </c>
@@ -15025,7 +15157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>1995</v>
       </c>
@@ -15054,7 +15186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>1995</v>
       </c>
@@ -15083,7 +15215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>1996</v>
       </c>
@@ -15112,7 +15244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>1996</v>
       </c>
@@ -15141,7 +15273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>1996</v>
       </c>
@@ -15170,7 +15302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1996</v>
       </c>
@@ -15199,7 +15331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>1996</v>
       </c>
@@ -15228,7 +15360,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1996</v>
       </c>
@@ -15257,7 +15389,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>1996</v>
       </c>
@@ -15286,7 +15418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>1996</v>
       </c>
@@ -15315,7 +15447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>1996</v>
       </c>
@@ -15344,7 +15476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>1996</v>
       </c>
@@ -15373,7 +15505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>1996</v>
       </c>
@@ -15402,7 +15534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>1996</v>
       </c>
@@ -15431,7 +15563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>1997</v>
       </c>
@@ -15460,7 +15592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>1997</v>
       </c>
@@ -15489,7 +15621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>1997</v>
       </c>
@@ -15518,7 +15650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>1997</v>
       </c>
@@ -15547,7 +15679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>1997</v>
       </c>
@@ -15576,7 +15708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>1997</v>
       </c>
@@ -15605,7 +15737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>1997</v>
       </c>
@@ -15634,7 +15766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>1997</v>
       </c>
@@ -15663,7 +15795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>1997</v>
       </c>
@@ -15692,7 +15824,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1997</v>
       </c>
@@ -15721,7 +15853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>1997</v>
       </c>
@@ -15750,7 +15882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>1997</v>
       </c>
@@ -15779,7 +15911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>1998</v>
       </c>
@@ -15808,7 +15940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>1998</v>
       </c>
@@ -15837,7 +15969,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>1998</v>
       </c>
@@ -15866,7 +15998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1998</v>
       </c>
@@ -15895,7 +16027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>1998</v>
       </c>
@@ -15924,7 +16056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>1998</v>
       </c>
@@ -15953,7 +16085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>1998</v>
       </c>
@@ -15982,7 +16114,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>1998</v>
       </c>
@@ -16011,7 +16143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>1998</v>
       </c>
@@ -16040,7 +16172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>1998</v>
       </c>
@@ -16069,7 +16201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>1998</v>
       </c>
@@ -16098,7 +16230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>1998</v>
       </c>
@@ -16127,7 +16259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>1999</v>
       </c>
@@ -16156,7 +16288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>1999</v>
       </c>
@@ -16185,7 +16317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>1999</v>
       </c>
@@ -16214,7 +16346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1999</v>
       </c>
@@ -16243,7 +16375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>1999</v>
       </c>
@@ -16272,7 +16404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>1999</v>
       </c>
@@ -16301,7 +16433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>1999</v>
       </c>
@@ -16330,7 +16462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>1999</v>
       </c>
@@ -16359,7 +16491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>1999</v>
       </c>
@@ -16388,7 +16520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>1999</v>
       </c>
@@ -16417,7 +16549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>1999</v>
       </c>
@@ -16446,7 +16578,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>1999</v>
       </c>
@@ -16475,7 +16607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>2000</v>
       </c>
@@ -16504,7 +16636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>2000</v>
       </c>
@@ -16533,7 +16665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2000</v>
       </c>
@@ -16562,7 +16694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2000</v>
       </c>
@@ -16591,7 +16723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2000</v>
       </c>
@@ -16620,7 +16752,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>2000</v>
       </c>
@@ -16649,7 +16781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>2000</v>
       </c>
@@ -16678,7 +16810,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>2000</v>
       </c>
@@ -16707,7 +16839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>2000</v>
       </c>
@@ -16736,7 +16868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2000</v>
       </c>
@@ -16765,7 +16897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>2000</v>
       </c>
@@ -16794,7 +16926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>2000</v>
       </c>
@@ -16823,7 +16955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>2001</v>
       </c>
@@ -16852,7 +16984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2001</v>
       </c>
@@ -16881,7 +17013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>2001</v>
       </c>
@@ -16910,7 +17042,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2001</v>
       </c>
@@ -16939,7 +17071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>2001</v>
       </c>
@@ -16968,7 +17100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2001</v>
       </c>
@@ -16997,7 +17129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2001</v>
       </c>
@@ -17026,7 +17158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2001</v>
       </c>
@@ -17055,7 +17187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>2001</v>
       </c>
@@ -17084,7 +17216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>2001</v>
       </c>
@@ -17113,7 +17245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>2001</v>
       </c>
@@ -17142,7 +17274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>2001</v>
       </c>
@@ -17171,7 +17303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2002</v>
       </c>
@@ -17200,7 +17332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2002</v>
       </c>
@@ -17229,7 +17361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2002</v>
       </c>
@@ -17258,7 +17390,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2002</v>
       </c>
@@ -17287,7 +17419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>2002</v>
       </c>
@@ -17316,7 +17448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>2002</v>
       </c>
@@ -17345,7 +17477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>2002</v>
       </c>
@@ -17374,7 +17506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>2002</v>
       </c>
@@ -17403,7 +17535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>2002</v>
       </c>
@@ -17432,7 +17564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2002</v>
       </c>
@@ -17461,7 +17593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2002</v>
       </c>
@@ -17490,7 +17622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>2002</v>
       </c>
@@ -17519,7 +17651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>2003</v>
       </c>
@@ -17548,7 +17680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>2003</v>
       </c>
@@ -17577,7 +17709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>2003</v>
       </c>
@@ -17606,7 +17738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>2003</v>
       </c>
@@ -17635,7 +17767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>2003</v>
       </c>
@@ -17664,7 +17796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2003</v>
       </c>
@@ -17693,7 +17825,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>2003</v>
       </c>
@@ -17722,7 +17854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2003</v>
       </c>
@@ -17751,7 +17883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>2003</v>
       </c>
@@ -17780,7 +17912,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>2003</v>
       </c>
@@ -17809,7 +17941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2003</v>
       </c>
@@ -17838,7 +17970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>2003</v>
       </c>
@@ -17867,7 +17999,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>2004</v>
       </c>
@@ -17896,7 +18028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2004</v>
       </c>
@@ -17925,7 +18057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>2004</v>
       </c>
@@ -17954,7 +18086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>2004</v>
       </c>
@@ -17983,7 +18115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>2004</v>
       </c>
@@ -18012,7 +18144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>2004</v>
       </c>
@@ -18041,7 +18173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>2004</v>
       </c>
@@ -18070,7 +18202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>2004</v>
       </c>
@@ -18099,7 +18231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>2004</v>
       </c>
@@ -18128,7 +18260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>2004</v>
       </c>
@@ -18157,7 +18289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>2004</v>
       </c>
@@ -18186,7 +18318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>2004</v>
       </c>
@@ -18215,7 +18347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>2005</v>
       </c>
@@ -18244,7 +18376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>2005</v>
       </c>
@@ -18273,7 +18405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>2005</v>
       </c>
@@ -18302,7 +18434,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>2005</v>
       </c>
@@ -18331,7 +18463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>2005</v>
       </c>
@@ -18360,7 +18492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>2005</v>
       </c>
@@ -18389,7 +18521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>2005</v>
       </c>
@@ -18418,7 +18550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>2005</v>
       </c>
@@ -18447,7 +18579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>2005</v>
       </c>
@@ -18476,7 +18608,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>2005</v>
       </c>
@@ -18505,7 +18637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>2005</v>
       </c>
@@ -18534,7 +18666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>2005</v>
       </c>
@@ -18563,7 +18695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>2006</v>
       </c>
@@ -18592,7 +18724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>2006</v>
       </c>
@@ -18621,7 +18753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>2006</v>
       </c>
@@ -18650,7 +18782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>2006</v>
       </c>
@@ -18679,7 +18811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2006</v>
       </c>
@@ -18708,7 +18840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>2006</v>
       </c>
@@ -18737,7 +18869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2006</v>
       </c>
@@ -18766,7 +18898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>2006</v>
       </c>
@@ -18795,7 +18927,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>2006</v>
       </c>
@@ -18824,7 +18956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>2006</v>
       </c>
@@ -18853,7 +18985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>2006</v>
       </c>
@@ -18882,7 +19014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>2006</v>
       </c>
@@ -18911,7 +19043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>2007</v>
       </c>
@@ -18940,7 +19072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>2007</v>
       </c>
@@ -18969,7 +19101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>2007</v>
       </c>
@@ -18998,7 +19130,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>2007</v>
       </c>
@@ -19027,7 +19159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2007</v>
       </c>
@@ -19056,7 +19188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>2007</v>
       </c>
@@ -19085,7 +19217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>2007</v>
       </c>
@@ -19114,7 +19246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>2007</v>
       </c>
@@ -19143,7 +19275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>2007</v>
       </c>
@@ -19172,7 +19304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>2007</v>
       </c>
@@ -19201,7 +19333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>2007</v>
       </c>
@@ -19230,7 +19362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>2007</v>
       </c>
@@ -19259,7 +19391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>2008</v>
       </c>
@@ -19288,7 +19420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>2008</v>
       </c>
@@ -19317,7 +19449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>2008</v>
       </c>
@@ -19346,7 +19478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>2008</v>
       </c>
@@ -19375,7 +19507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>2008</v>
       </c>
@@ -19404,7 +19536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>2008</v>
       </c>
@@ -19433,7 +19565,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>2008</v>
       </c>
@@ -19462,7 +19594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>2008</v>
       </c>
@@ -19491,7 +19623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>2008</v>
       </c>
@@ -19520,7 +19652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>2008</v>
       </c>
@@ -19549,7 +19681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>2008</v>
       </c>
@@ -19578,7 +19710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>2008</v>
       </c>
@@ -19607,7 +19739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>2009</v>
       </c>
@@ -19636,7 +19768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>2009</v>
       </c>
@@ -19665,7 +19797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>2009</v>
       </c>
@@ -19694,7 +19826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>2009</v>
       </c>
@@ -19723,7 +19855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>2009</v>
       </c>
@@ -19752,7 +19884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>2009</v>
       </c>
@@ -19781,7 +19913,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>2009</v>
       </c>
@@ -19810,7 +19942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>2009</v>
       </c>
@@ -19839,7 +19971,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>2009</v>
       </c>
@@ -19868,7 +20000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>2009</v>
       </c>
@@ -19897,7 +20029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>2009</v>
       </c>
@@ -19926,7 +20058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>2009</v>
       </c>
@@ -19955,7 +20087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2010</v>
       </c>
@@ -19984,7 +20116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2010</v>
       </c>
@@ -20013,7 +20145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2010</v>
       </c>
@@ -20042,7 +20174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>2010</v>
       </c>
@@ -20071,7 +20203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>2010</v>
       </c>
@@ -20100,7 +20232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>2010</v>
       </c>
@@ -20129,7 +20261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>2010</v>
       </c>
@@ -20158,7 +20290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>2010</v>
       </c>
@@ -20187,7 +20319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>2010</v>
       </c>
@@ -20216,7 +20348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2010</v>
       </c>
@@ -20245,7 +20377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>2010</v>
       </c>
@@ -20274,7 +20406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>2010</v>
       </c>
@@ -20303,7 +20435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>2011</v>
       </c>
@@ -20332,7 +20464,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>2011</v>
       </c>
@@ -20361,7 +20493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2011</v>
       </c>
@@ -20390,7 +20522,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>2011</v>
       </c>
@@ -20419,7 +20551,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>2011</v>
       </c>
@@ -20448,7 +20580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>2011</v>
       </c>
@@ -20477,7 +20609,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>2011</v>
       </c>
@@ -20506,7 +20638,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>2011</v>
       </c>
@@ -20535,7 +20667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>2011</v>
       </c>
@@ -20564,7 +20696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>2011</v>
       </c>
@@ -20593,7 +20725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>2011</v>
       </c>
@@ -20622,7 +20754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>2011</v>
       </c>
@@ -20651,7 +20783,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>2012</v>
       </c>
@@ -20680,7 +20812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>2012</v>
       </c>
@@ -20709,7 +20841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>2012</v>
       </c>
@@ -20738,7 +20870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>2012</v>
       </c>
@@ -20767,7 +20899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>2012</v>
       </c>
@@ -20796,7 +20928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>2012</v>
       </c>
@@ -20825,7 +20957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>2012</v>
       </c>
@@ -20854,7 +20986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>2012</v>
       </c>
@@ -20883,7 +21015,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>2012</v>
       </c>
@@ -20912,7 +21044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>2012</v>
       </c>
@@ -20941,7 +21073,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>2012</v>
       </c>
@@ -20970,7 +21102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>2012</v>
       </c>
@@ -20999,7 +21131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>2013</v>
       </c>
@@ -21028,7 +21160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>2013</v>
       </c>
@@ -21057,7 +21189,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>2013</v>
       </c>
@@ -21086,7 +21218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>2013</v>
       </c>
@@ -21115,7 +21247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>2013</v>
       </c>
@@ -21144,7 +21276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>2013</v>
       </c>
@@ -21173,7 +21305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>2013</v>
       </c>
@@ -21202,7 +21334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>2013</v>
       </c>
@@ -21231,7 +21363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>2013</v>
       </c>
@@ -21260,7 +21392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>2013</v>
       </c>
@@ -21289,7 +21421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>2013</v>
       </c>
@@ -21318,7 +21450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>2013</v>
       </c>
@@ -21347,7 +21479,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>2014</v>
       </c>
@@ -21376,7 +21508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>2014</v>
       </c>
@@ -21405,7 +21537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>2014</v>
       </c>
@@ -21434,7 +21566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>2014</v>
       </c>
@@ -21463,7 +21595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>2014</v>
       </c>
@@ -21492,7 +21624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>2014</v>
       </c>
@@ -21521,7 +21653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>2014</v>
       </c>
@@ -21550,7 +21682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>2014</v>
       </c>
@@ -21579,7 +21711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>2014</v>
       </c>
@@ -21608,7 +21740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>2014</v>
       </c>
@@ -21637,7 +21769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>2014</v>
       </c>
@@ -21666,7 +21798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>2014</v>
       </c>
@@ -21695,7 +21827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>2015</v>
       </c>
@@ -21724,7 +21856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>2015</v>
       </c>
@@ -21753,7 +21885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>2015</v>
       </c>
@@ -21782,7 +21914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>2015</v>
       </c>
@@ -21811,7 +21943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>2015</v>
       </c>
@@ -21840,7 +21972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>2015</v>
       </c>
@@ -21869,7 +22001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>2015</v>
       </c>
@@ -21898,7 +22030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>2015</v>
       </c>
@@ -21927,7 +22059,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>2015</v>
       </c>
@@ -21956,7 +22088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>2015</v>
       </c>
@@ -21985,7 +22117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>2015</v>
       </c>
@@ -22014,7 +22146,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>2015</v>
       </c>
@@ -22043,7 +22175,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>2016</v>
       </c>
@@ -22072,7 +22204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>2016</v>
       </c>
@@ -22101,7 +22233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>2016</v>
       </c>
@@ -22130,7 +22262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>2016</v>
       </c>
@@ -22159,7 +22291,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>2016</v>
       </c>
@@ -22188,7 +22320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>2016</v>
       </c>
@@ -22217,7 +22349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>2016</v>
       </c>
@@ -22246,7 +22378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>2016</v>
       </c>
@@ -22275,7 +22407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>2016</v>
       </c>
@@ -22304,7 +22436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>2016</v>
       </c>
@@ -22333,7 +22465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>2016</v>
       </c>
@@ -22362,7 +22494,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>2016</v>
       </c>
@@ -22391,7 +22523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>2017</v>
       </c>
@@ -22420,7 +22552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>2017</v>
       </c>
@@ -22449,7 +22581,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>2017</v>
       </c>
@@ -22478,7 +22610,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>2017</v>
       </c>
@@ -22507,7 +22639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>2017</v>
       </c>
@@ -22536,7 +22668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>2017</v>
       </c>
@@ -22565,7 +22697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>2017</v>
       </c>
@@ -22594,7 +22726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>2017</v>
       </c>
@@ -22623,7 +22755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>2017</v>
       </c>
@@ -22652,7 +22784,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>2017</v>
       </c>
@@ -22681,7 +22813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>2017</v>
       </c>
@@ -22710,7 +22842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>2017</v>
       </c>
@@ -22739,7 +22871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>2018</v>
       </c>
@@ -22768,7 +22900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>2018</v>
       </c>
@@ -22797,7 +22929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>2018</v>
       </c>
@@ -22826,7 +22958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>2018</v>
       </c>
@@ -22855,7 +22987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>2018</v>
       </c>
@@ -22884,7 +23016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>2018</v>
       </c>
@@ -22913,7 +23045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>2018</v>
       </c>
@@ -22942,7 +23074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>2018</v>
       </c>
@@ -22971,7 +23103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>2018</v>
       </c>
@@ -23000,7 +23132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>2018</v>
       </c>
@@ -23029,7 +23161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>2018</v>
       </c>
@@ -23058,7 +23190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>2018</v>
       </c>
@@ -23087,7 +23219,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>2019</v>
       </c>
@@ -23116,7 +23248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>2019</v>
       </c>
@@ -23145,7 +23277,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>2019</v>
       </c>
@@ -23174,7 +23306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>2019</v>
       </c>
@@ -23203,7 +23335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>2019</v>
       </c>
@@ -23232,7 +23364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>2019</v>
       </c>
@@ -23261,7 +23393,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>2019</v>
       </c>
@@ -23290,7 +23422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>2019</v>
       </c>
@@ -23319,7 +23451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>2019</v>
       </c>
@@ -23348,7 +23480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>2019</v>
       </c>
@@ -23377,7 +23509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>2019</v>
       </c>
@@ -23406,7 +23538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>2019</v>
       </c>
@@ -23435,7 +23567,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>2020</v>
       </c>
@@ -23464,7 +23596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>2020</v>
       </c>
@@ -23493,7 +23625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>2020</v>
       </c>
@@ -23522,7 +23654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>2020</v>
       </c>
@@ -23551,7 +23683,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>2020</v>
       </c>
@@ -23580,7 +23712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>2020</v>
       </c>
@@ -23609,7 +23741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>2020</v>
       </c>
@@ -23638,7 +23770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>2020</v>
       </c>
@@ -23667,7 +23799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>2020</v>
       </c>
@@ -23696,7 +23828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>2020</v>
       </c>
@@ -23725,7 +23857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>2020</v>
       </c>
@@ -23754,7 +23886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>2020</v>
       </c>
@@ -23783,7 +23915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>2021</v>
       </c>
@@ -23812,7 +23944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>2021</v>
       </c>
@@ -23841,7 +23973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>2021</v>
       </c>
@@ -23870,7 +24002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>2021</v>
       </c>
@@ -23899,7 +24031,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>2021</v>
       </c>
@@ -23928,7 +24060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>2021</v>
       </c>
@@ -23957,7 +24089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>2021</v>
       </c>
@@ -23986,7 +24118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>2021</v>
       </c>
@@ -24015,7 +24147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>2021</v>
       </c>
@@ -24044,7 +24176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>2021</v>
       </c>
@@ -24073,7 +24205,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>2021</v>
       </c>
@@ -24102,7 +24234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>2021</v>
       </c>
@@ -24131,7 +24263,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>2022</v>
       </c>
@@ -24160,7 +24292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>2022</v>
       </c>
@@ -24189,7 +24321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>2022</v>
       </c>
@@ -24218,7 +24350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>2022</v>
       </c>
@@ -24247,7 +24379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>2022</v>
       </c>
@@ -24276,7 +24408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>2022</v>
       </c>
@@ -24305,7 +24437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>2022</v>
       </c>
@@ -24334,7 +24466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>2022</v>
       </c>
@@ -24363,7 +24495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>2022</v>
       </c>
@@ -24392,7 +24524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>2022</v>
       </c>
@@ -24421,7 +24553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>2022</v>
       </c>
@@ -24450,7 +24582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>2022</v>
       </c>
@@ -24479,7 +24611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>2023</v>
       </c>
@@ -24508,7 +24640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>2023</v>
       </c>
@@ -24537,7 +24669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>2023</v>
       </c>
@@ -24566,7 +24698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>2023</v>
       </c>
@@ -24595,7 +24727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>2023</v>
       </c>
@@ -24624,7 +24756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>2023</v>
       </c>
@@ -24653,7 +24785,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>2023</v>
       </c>
@@ -24682,7 +24814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>2023</v>
       </c>
@@ -24711,7 +24843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>2023</v>
       </c>
@@ -24740,7 +24872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>2023</v>
       </c>
@@ -24782,9 +24914,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24795,7 +24927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24806,7 +24938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24830,9 +24962,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24843,7 +24975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24854,7 +24986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -24865,7 +24997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -24876,7 +25008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1990</v>
       </c>
@@ -24887,7 +25019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -24898,7 +25030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24922,9 +25054,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24935,7 +25067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24946,7 +25078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -24970,9 +25102,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -24983,7 +25115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -24994,7 +25126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -25005,7 +25137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -25016,7 +25148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -25027,7 +25159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -25038,7 +25170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -25049,7 +25181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -25073,9 +25205,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -25086,7 +25218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -25097,7 +25229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1900</v>
       </c>
@@ -25108,7 +25240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1950</v>
       </c>
@@ -25119,7 +25251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -25130,7 +25262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -25141,7 +25273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -25152,7 +25284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -25163,7 +25295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -25187,9 +25319,9 @@
       <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -25200,7 +25332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1850</v>
       </c>
@@ -25211,7 +25343,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1905</v>
       </c>
@@ -25222,7 +25354,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1940</v>
       </c>
@@ -25233,7 +25365,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1950</v>
       </c>
@@ -25244,7 +25376,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1970</v>
       </c>
@@ -25255,7 +25387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1975</v>
       </c>
@@ -25266,7 +25398,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -25277,7 +25409,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -25288,7 +25420,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2023</v>
       </c>

--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yeleconsultingsas-my.sharepoint.com/personal/bastien_gauthier_yele_fr/Documents/Documents/21_Chantiers_internes/Clones_git/planetary-flag/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00205129-BB00-4A8B-A885-EB1DA01180F9}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF854CED-A03C-4649-9437-CE2BA434E712}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" activeTab="3" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="137">
   <si>
     <t>Concentration de CO2 dans l'atmosphère
 PPM</t>
@@ -414,15 +414,73 @@
   <si>
     <t>Earth beyond six of nine planetary boundaries (table S1)</t>
   </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2100 - Jiang - 2023 - Journal of Advances in Modeling Earth Systems - Wiley Online Library</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2100</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2101</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2102</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2103</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2104</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2105</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2106</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2107</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2108</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2109</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2110</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2111</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2112</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2113</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2114</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2115</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2116</t>
+  </si>
+  <si>
+    <t>Global Surface Ocean Acidification Indicators From 1750 to 2117</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +517,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -503,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,7 +579,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -836,7 +903,7 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1862,10 +1929,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1980,6 +2047,20 @@
       </c>
       <c r="D8" s="3">
         <v>45182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45008</v>
       </c>
     </row>
   </sheetData>
@@ -1991,6 +2072,7 @@
     <hyperlink ref="C6" r:id="rId5" display="https://pubs.acs.org/doi/10.1021/acs.est.1c04158" xr:uid="{A26E87A5-19E1-4373-B44D-571DA4702664}"/>
     <hyperlink ref="C7" r:id="rId6" display="https://eartharxiv.org/repository/view/3438/" xr:uid="{4531B76C-59AB-469E-884C-B842EBEDF156}"/>
     <hyperlink ref="C8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10499318/" xr:uid="{A076949A-2331-4CA7-A20B-5D5C7A888422}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://agupubs.onlinelibrary.wiley.com/doi/10.1029/2022MS003563" xr:uid="{325AB248-0338-4049-8D28-2409D8BF85D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24908,13 +24990,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D768F792-B1A9-4FFB-80DF-A50BE994C552}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -24929,27 +25014,215 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1850</v>
-      </c>
-      <c r="B2">
-        <v>3.44</v>
+        <v>1750</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3.5706958800000002</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>1850</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3.4773901299999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1860</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.4631333199999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1870</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3.4577410799999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1880</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.4446303399999998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1890</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.4222404399999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1900</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.4081920000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1910</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.3886222099999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1920</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3.3650698600000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1930</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.34971665</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1940</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.3317948999999998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1950</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3.3149042099999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1960</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3.2969743399999998</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1970</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3.2522000100000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1980</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.19557074</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1990</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.1259630399999998</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3.0629251000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.9880474000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
-      <c r="B3">
+      <c r="B20" s="8">
         <v>2.8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/planetary_boundaries_data.xlsx
+++ b/data/planetary_boundaries_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yeleconsultingsas-my.sharepoint.com/personal/bastien_gauthier_yele_fr/Documents/Documents/21_Chantiers_internes/Clones_git/planetary-flag/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF854CED-A03C-4649-9437-CE2BA434E712}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{6B4B5E74-9189-4FFF-A8B2-D687E69AAF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5C835F-6095-4066-9A8B-E112693E8A25}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" activeTab="3" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" xr2:uid="{36A38DD1-033D-44E8-8F60-3212F4F44CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="synthese" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -580,7 +580,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,8 +903,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,10 +1022,10 @@
         <v>2.75</v>
       </c>
       <c r="H3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -24992,7 +24992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D768F792-B1A9-4FFB-80DF-A50BE994C552}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
